--- a/tests/testthat/likelihood_calculations.xlsx
+++ b/tests/testthat/likelihood_calculations.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LFM\Dropbox\VUW\loglike\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Marsden\clustord\tests\testthat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4441CCEB-5A5A-44D9-83B5-C0ECE25EF87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240A23D9-0D41-4974-8CC6-6EC6C67A9894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="120" windowWidth="17280" windowHeight="9060" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OSM" sheetId="1" r:id="rId1"/>
     <sheet name="POM" sheetId="2" r:id="rId2"/>
-    <sheet name="Binary" sheetId="3" r:id="rId3"/>
+    <sheet name="Binary" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
@@ -24,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="110">
   <si>
     <t>n</t>
   </si>
@@ -123,10 +124,22 @@
     <t>Cluster llc</t>
   </si>
   <si>
+    <t>Total llc</t>
+  </si>
+  <si>
     <t>norm theta r=1</t>
   </si>
   <si>
     <t>norm theta r=2</t>
+  </si>
+  <si>
+    <t>y=1</t>
+  </si>
+  <si>
+    <t>y=2</t>
+  </si>
+  <si>
+    <t>y=3</t>
   </si>
   <si>
     <t>rp model:</t>
@@ -171,10 +184,10 @@
     <t>theta r=2</t>
   </si>
   <si>
-    <t>Total llc</t>
+    <t>Row covariates</t>
   </si>
   <si>
-    <t>Row covariates</t>
+    <t>Column covariates</t>
   </si>
   <si>
     <t>w1</t>
@@ -192,43 +205,34 @@
     <t>w2^2</t>
   </si>
   <si>
-    <t>Column covariates</t>
-  </si>
-  <si>
-    <t>delta_r1</t>
-  </si>
-  <si>
-    <t>delta_r2</t>
-  </si>
-  <si>
-    <t>delta</t>
+    <t>mu + (alpha_r)</t>
   </si>
   <si>
     <t>y=0</t>
   </si>
   <si>
-    <t>y=1</t>
+    <t>mu + (alpha_r + beta_j)</t>
   </si>
   <si>
-    <t>y=2</t>
+    <t>mu + (alpha_r + beta_j + gamma_rj)</t>
   </si>
   <si>
-    <t>y=3</t>
+    <t>mu + (alpha_r + beta_c)</t>
+  </si>
+  <si>
+    <t>mu + (alpha_r + beta_c + gamma_rc)</t>
+  </si>
+  <si>
+    <t>mu + (alpha_r + delta_r1*log(w1_i) + delta_r2*w1_i:w2_i + delta*(w2_i^2))</t>
+  </si>
+  <si>
+    <t>rw model</t>
   </si>
   <si>
     <t>Exponents</t>
   </si>
   <si>
-    <t>theta ymat</t>
-  </si>
-  <si>
     <t>alpha_r</t>
-  </si>
-  <si>
-    <t>rw model</t>
-  </si>
-  <si>
-    <t>rwz model</t>
   </si>
   <si>
     <t>r=1 j=1</t>
@@ -243,7 +247,37 @@
     <t>r=2 j=2</t>
   </si>
   <si>
+    <t>delta_r1</t>
+  </si>
+  <si>
+    <t>delta_r2</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>theta ymat</t>
+  </si>
+  <si>
+    <t>mu + (alpha_r + delta_r1*log(w1_i) + delta_r2*v1_j + delta*v2_j)</t>
+  </si>
+  <si>
+    <t>rwz model</t>
+  </si>
+  <si>
+    <t>alpha_r (r=1)</t>
+  </si>
+  <si>
+    <t>(r=2)</t>
+  </si>
+  <si>
+    <t>delta_r1 (r=1)</t>
+  </si>
+  <si>
     <t>i=1</t>
+  </si>
+  <si>
+    <t>delta_r2 (r=1)</t>
   </si>
   <si>
     <t>i=2</t>
@@ -255,10 +289,43 @@
     <t>i=4</t>
   </si>
   <si>
+    <t>INCOMPLETE log-likelihood (approximate incomplete calculation of entropy correction term to complete log-likelihood)</t>
+  </si>
+  <si>
+    <t>mu + (alpha_r + delta_c1*log(w1_i) + delta_c2*v1_j)</t>
+  </si>
+  <si>
+    <t>Exponents theta y</t>
+  </si>
+  <si>
+    <t>LLI Approximation:</t>
+  </si>
+  <si>
+    <t>rcwz model</t>
+  </si>
+  <si>
+    <t>r=1, c=1</t>
+  </si>
+  <si>
+    <t>r=2,c=1</t>
+  </si>
+  <si>
+    <t>r=1, c=2</t>
+  </si>
+  <si>
+    <t>c=1</t>
+  </si>
+  <si>
+    <t>delta_c1 (c=1)</t>
+  </si>
+  <si>
     <t>delta_c1 (c=2)</t>
   </si>
   <si>
-    <t>delta_c1 (c=1)</t>
+    <t>r=2, c=1</t>
+  </si>
+  <si>
+    <t>r=2, c=2</t>
   </si>
   <si>
     <t>delta_c2 (c=1)</t>
@@ -267,141 +334,53 @@
     <t>delta_c2 (c=2)</t>
   </si>
   <si>
-    <t>delta_r1 (r=1)</t>
-  </si>
-  <si>
-    <t>delta_r2 (r=1)</t>
-  </si>
-  <si>
-    <t>(r=2)</t>
-  </si>
-  <si>
-    <t>alpha_r (r=1)</t>
-  </si>
-  <si>
-    <t>r=1, c=1</t>
-  </si>
-  <si>
-    <t>r=1, c=2</t>
-  </si>
-  <si>
-    <t>r=2, c=1</t>
-  </si>
-  <si>
-    <t>r=2, c=2</t>
-  </si>
-  <si>
     <t>r=1,c=2</t>
   </si>
   <si>
     <t>r=2,c=2</t>
   </si>
   <si>
-    <t>Exponents theta y</t>
+    <t>r=1</t>
   </si>
   <si>
-    <t>r=2,c=1</t>
+    <t>r=2</t>
   </si>
   <si>
-    <t>mu + (alpha_r + delta_r1*log(w1_i) + delta_r2*v1_j + delta*v2_j)</t>
+    <t>z_ir</t>
   </si>
   <si>
-    <t>mu + (alpha_r + delta_r1*log(w1_i) + delta_r2*w1_i:w2_i + delta*(w2_i^2))</t>
+    <t>x_jc</t>
   </si>
   <si>
-    <t>mu + (alpha_r + delta_c1*log(w1_i) + delta_c2*v1_j)</t>
+    <t>z_ir*ln(z_ir)</t>
   </si>
   <si>
-    <t>mu + (alpha_r + beta_c + gamma_rc)</t>
+    <t>x_jc*ln(x_jc)</t>
   </si>
   <si>
-    <t>mu + (alpha_r)</t>
+    <t>z_ir entropy term</t>
   </si>
   <si>
-    <t>mu + (alpha_r + beta_j)</t>
+    <t>x_jc entropy term</t>
   </si>
   <si>
-    <t>mu + (alpha_r + beta_j + gamma_rj)</t>
-  </si>
-  <si>
-    <t>mu + (alpha_r + beta_c)</t>
-  </si>
-  <si>
-    <t>rcwz model</t>
-  </si>
-  <si>
-    <t>i=1, j=1</t>
-  </si>
-  <si>
-    <t>i=1, j=2</t>
-  </si>
-  <si>
-    <t>i=2, j=1</t>
-  </si>
-  <si>
-    <t>i=2, j=2</t>
-  </si>
-  <si>
-    <t>Sum over r and c</t>
-  </si>
-  <si>
-    <t>Normalized values of pi_r*f_rc*kappa_c</t>
-  </si>
-  <si>
-    <t>pi_r*f_rc*kappa_c</t>
-  </si>
-  <si>
-    <t>i=3, j=1</t>
-  </si>
-  <si>
-    <t>i=3, j=2</t>
-  </si>
-  <si>
-    <t>Note that this section is arranged differently to match the arrangement of the code for the entropy correction calculatio</t>
-  </si>
-  <si>
-    <t>INCOMPLETE log-likelihood (approximate incomplete calculation of entropy correction term to complete log-likelihood)</t>
-  </si>
-  <si>
-    <t>i=4, j=1</t>
-  </si>
-  <si>
-    <t>i=4, j=2</t>
-  </si>
-  <si>
-    <t>z_ir*log(normalized)*x_jc</t>
-  </si>
-  <si>
-    <t>pi_r</t>
-  </si>
-  <si>
-    <t>kappa_c</t>
-  </si>
-  <si>
-    <t>LLI Approximation:</t>
-  </si>
-  <si>
-    <t>ppr_m_ir</t>
-  </si>
-  <si>
-    <t>ppc_m_jc</t>
-  </si>
-  <si>
-    <t>pprm_ir</t>
-  </si>
-  <si>
-    <t>pprm_jc</t>
-  </si>
-  <si>
-    <t>c=1</t>
+    <t>LLI Approx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
@@ -436,12 +415,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109:B111"/>
+    <sheetView topLeftCell="A71" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1394,7 +1374,7 @@
         <v>7.3890560989306504</v>
       </c>
       <c r="Q25" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="R25">
         <f>R24+U24</f>
@@ -1403,15 +1383,15 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <f>C23/SUM(C$23:C$25)</f>
@@ -1424,7 +1404,7 @@
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C29">
         <f>C24/SUM(C$23:C$25)</f>
@@ -1437,7 +1417,7 @@
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <f>C25/SUM(C$23:C$25)</f>
@@ -1461,7 +1441,7 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>20</v>
@@ -1802,7 +1782,7 @@
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1918,7 +1898,7 @@
         <v>1.8215139475675606</v>
       </c>
       <c r="Q43" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="R43">
         <f>R42+U42</f>
@@ -1953,7 +1933,7 @@
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
@@ -1962,7 +1942,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
         <v>6</v>
@@ -1973,7 +1953,7 @@
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <f t="shared" ref="C47:H49" si="11">C42/SUM(C$42:C$44)</f>
@@ -2002,7 +1982,7 @@
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C48">
         <f t="shared" si="11"/>
@@ -2031,7 +2011,7 @@
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C49">
         <f t="shared" si="11"/>
@@ -2071,7 +2051,7 @@
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C52" t="s">
         <v>20</v>
@@ -2412,7 +2392,7 @@
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2426,7 +2406,7 @@
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D59">
         <f>-D60</f>
@@ -2510,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="Q62" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="R62">
         <f>R61+U61</f>
@@ -2591,7 +2571,7 @@
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
@@ -2600,7 +2580,7 @@
         <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
         <v>6</v>
@@ -2611,7 +2591,7 @@
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C68">
         <f t="shared" ref="C68:H70" si="17">C63/SUM(C$63:C$65)</f>
@@ -2640,7 +2620,7 @@
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C69">
         <f t="shared" si="17"/>
@@ -2669,7 +2649,7 @@
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C70">
         <f t="shared" si="17"/>
@@ -2698,10 +2678,10 @@
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="J72" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M72" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q72" t="s">
         <v>17</v>
@@ -2709,7 +2689,7 @@
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C73" t="s">
         <v>20</v>
@@ -2730,7 +2710,7 @@
         <v>0.32159890823287957</v>
       </c>
       <c r="M73">
-        <f t="shared" ref="M73:O77" si="19">IF(A7=1,$E$87,IF(A7=2,$E$88,$E$89))</f>
+        <f t="shared" ref="M73:O78" si="19">IF(A7=1,$E$87,IF(A7=2,$E$88,$E$89))</f>
         <v>6.8652179130083882E-2</v>
       </c>
       <c r="N73">
@@ -2955,7 +2935,7 @@
         <v>0.14817413112963324</v>
       </c>
       <c r="M77">
-        <f>IF(A11=1,$E$87,IF(A11=2,$E$88,$E$89))</f>
+        <f t="shared" si="19"/>
         <v>9.4993063228536165E-2</v>
       </c>
       <c r="N77">
@@ -2963,7 +2943,7 @@
         <v>0.8363547576413799</v>
       </c>
       <c r="O77">
-        <f>IF(C11=1,$E$87,IF(C11=2,$E$88,$E$89))</f>
+        <f t="shared" si="19"/>
         <v>9.4993063228536165E-2</v>
       </c>
       <c r="Q77">
@@ -3012,15 +2992,15 @@
         <v>0.5302269606374872</v>
       </c>
       <c r="M78">
-        <f>IF(A12=1,$E$87,IF(A12=2,$E$88,$E$89))</f>
+        <f t="shared" si="19"/>
         <v>9.4993063228536165E-2</v>
       </c>
       <c r="N78">
-        <f>IF(B12=1,$E$87,IF(B12=2,$E$88,$E$89))</f>
+        <f t="shared" si="19"/>
         <v>0.8363547576413799</v>
       </c>
       <c r="O78">
-        <f>IF(C12=1,$E$87,IF(C12=2,$E$88,$E$89))</f>
+        <f t="shared" si="19"/>
         <v>0.8363547576413799</v>
       </c>
       <c r="Q78">
@@ -3050,7 +3030,7 @@
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D79">
         <v>0.5</v>
@@ -3060,10 +3040,10 @@
         <v>-0.5</v>
       </c>
       <c r="J79" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M79" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="2:22" x14ac:dyDescent="0.2">
@@ -3121,13 +3101,13 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E81" t="s">
         <v>27</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J81">
         <f t="shared" si="22"/>
@@ -3424,21 +3404,21 @@
     </row>
     <row r="86" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D86" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C87">
         <f t="shared" ref="C87:F89" si="26">C82/SUM(C$82:C$84)</f>
@@ -3483,7 +3463,7 @@
     </row>
     <row r="88" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C88">
         <f t="shared" si="26"/>
@@ -3504,7 +3484,7 @@
     </row>
     <row r="89" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C89">
         <f t="shared" si="26"/>
@@ -3536,7 +3516,7 @@
     </row>
     <row r="90" spans="2:22" x14ac:dyDescent="0.2">
       <c r="Q90" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="R90">
         <f>R89+U89</f>
@@ -3545,10 +3525,10 @@
     </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.2">
       <c r="J92" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M92" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q92" t="s">
         <v>17</v>
@@ -3556,7 +3536,7 @@
     </row>
     <row r="93" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C93" t="s">
         <v>20</v>
@@ -3897,7 +3877,7 @@
     </row>
     <row r="99" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D99">
         <v>0.5</v>
@@ -3907,15 +3887,15 @@
         <v>-0.5</v>
       </c>
       <c r="J99" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M99" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D100">
         <f>-D101</f>
@@ -4086,13 +4066,13 @@
         <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E103" t="s">
         <v>27</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J103">
         <f t="shared" si="32"/>
@@ -4317,21 +4297,21 @@
     </row>
     <row r="108" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D108" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C109">
         <f t="shared" ref="C109:F111" si="37">C104/SUM(C$104:C$106)</f>
@@ -4363,7 +4343,7 @@
     </row>
     <row r="110" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C110">
         <f t="shared" si="37"/>
@@ -4382,7 +4362,7 @@
         <v>0.14024438316608848</v>
       </c>
       <c r="Q110" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="R110">
         <f>R109+U109</f>
@@ -4391,7 +4371,7 @@
     </row>
     <row r="111" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C111">
         <f t="shared" si="37"/>
@@ -4420,7 +4400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView topLeftCell="H54" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H54" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="R97" sqref="R97"/>
     </sheetView>
   </sheetViews>
@@ -4649,7 +4629,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D15">
         <v>-0.5</v>
@@ -4924,10 +4904,10 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
@@ -5047,7 +5027,7 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="Q25" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="R25">
         <f>+R24+U24</f>
@@ -5067,10 +5047,10 @@
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D28">
         <v>-0.5</v>
@@ -5295,7 +5275,7 @@
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -5408,7 +5388,7 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
@@ -5417,7 +5397,7 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
         <v>6</v>
@@ -5541,7 +5521,7 @@
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="Q38" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="R38">
         <f>+R37+U37</f>
@@ -5550,10 +5530,10 @@
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D40">
         <v>-0.5</v>
@@ -5778,7 +5758,7 @@
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -5840,7 +5820,7 @@
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D45">
         <f>-D46</f>
@@ -5943,7 +5923,7 @@
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
@@ -5952,7 +5932,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G48" t="s">
         <v>6</v>
@@ -6024,7 +6004,7 @@
         <v>0.35351790983185949</v>
       </c>
       <c r="Q50" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="R50">
         <f>+R49+U49</f>
@@ -6059,10 +6039,10 @@
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.2">
       <c r="J53" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M53" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q53" t="s">
         <v>17</v>
@@ -6070,10 +6050,10 @@
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D54">
         <v>-0.5</v>
@@ -6298,7 +6278,7 @@
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D58">
         <v>0.5</v>
@@ -6408,22 +6388,22 @@
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" t="s">
+        <v>44</v>
+      </c>
+      <c r="J60" t="s">
+        <v>42</v>
+      </c>
+      <c r="M60" t="s">
         <v>43</v>
-      </c>
-      <c r="D60" t="s">
-        <v>40</v>
-      </c>
-      <c r="E60" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" t="s">
-        <v>40</v>
-      </c>
-      <c r="J60" t="s">
-        <v>38</v>
-      </c>
-      <c r="M60" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.2">
@@ -6815,7 +6795,7 @@
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="Q71" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="R71">
         <f>+R70+U70</f>
@@ -6824,10 +6804,10 @@
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="J73" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M73" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q73" t="s">
         <v>17</v>
@@ -6835,10 +6815,10 @@
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D74">
         <v>-0.5</v>
@@ -7063,7 +7043,7 @@
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D78">
         <v>0.5</v>
@@ -7123,7 +7103,7 @@
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D79">
         <f>-D80</f>
@@ -7191,10 +7171,10 @@
         <v>-0.5</v>
       </c>
       <c r="J80" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M80" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="3:22" x14ac:dyDescent="0.2">
@@ -7249,16 +7229,16 @@
     </row>
     <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D82" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" t="s">
         <v>44</v>
-      </c>
-      <c r="F82" t="s">
-        <v>40</v>
       </c>
       <c r="J82">
         <f t="shared" si="31"/>
@@ -7598,7 +7578,7 @@
     </row>
     <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="Q91" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="R91">
         <f>+R90+U90</f>
@@ -7612,11 +7592,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AL176"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2DA2D9-F29D-4DBB-9461-1402B0C64181}">
+  <dimension ref="A1:AC153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB133" sqref="AB133"/>
+    <sheetView tabSelected="1" topLeftCell="F105" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I151" sqref="I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7624,7 +7604,6 @@
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="1019" max="1024" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -7635,10 +7614,10 @@
         <v>4</v>
       </c>
       <c r="L1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="R1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -7649,19 +7628,19 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
         <v>8</v>
@@ -7883,7 +7862,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -7900,7 +7879,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D13">
         <v>-0.5</v>
@@ -8055,15 +8034,15 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <f>1/(1+EXP($D13+$D14))</f>
@@ -8092,7 +8071,7 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <f>EXP($D13+$D14)/(1+EXP($D13+$D14))</f>
@@ -8118,7 +8097,7 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M21" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <f>+N20+P20</f>
@@ -8127,7 +8106,7 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -8141,16 +8120,16 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D24">
         <v>-0.5</v>
       </c>
       <c r="H24">
-        <f t="shared" ref="H24:H27" si="4">IF(A7=0,$C$31,$C$32)</f>
+        <f>IF(A7=0,$C$31,$C$32)</f>
         <v>0.62245933120185459</v>
       </c>
       <c r="I24">
@@ -8158,7 +8137,7 @@
         <v>2.9312230751356316E-2</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="J24:J27" si="5">IF(A7=0,$E$31,$E$32)</f>
+        <f>IF(A7=0,$E$31,$E$32)</f>
         <v>0.92414181997875644</v>
       </c>
       <c r="K24">
@@ -8166,19 +8145,19 @@
         <v>0.18242552380635632</v>
       </c>
       <c r="M24">
-        <f t="shared" ref="M24:N27" si="6">$D7*LN(H24)</f>
+        <f t="shared" ref="M24:N27" si="4">$D7*LN(H24)</f>
         <v>-4.7407698418010666E-2</v>
       </c>
       <c r="N24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-0.35297504182726208</v>
       </c>
       <c r="O24">
-        <f t="shared" ref="O24:P27" si="7">$E7*LN(J24)</f>
+        <f t="shared" ref="O24:P27" si="5">$E7*LN(J24)</f>
         <v>-7.1000760863294668E-2</v>
       </c>
       <c r="P24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-1.5312719501844771</v>
       </c>
     </row>
@@ -8190,7 +8169,7 @@
         <v>-1</v>
       </c>
       <c r="H25">
-        <f t="shared" si="4"/>
+        <f>IF(A8=0,$C$31,$C$32)</f>
         <v>0.62245933120185459</v>
       </c>
       <c r="I25">
@@ -8198,7 +8177,7 @@
         <v>0.97068776924864364</v>
       </c>
       <c r="J25">
-        <f t="shared" si="5"/>
+        <f>IF(A8=0,$E$31,$E$32)</f>
         <v>0.92414181997875644</v>
       </c>
       <c r="K25">
@@ -8206,19 +8185,19 @@
         <v>0.81757447619364365</v>
       </c>
       <c r="M25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-9.4815396836021332E-2</v>
       </c>
       <c r="N25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-5.9500836545241216E-3</v>
       </c>
       <c r="O25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-6.3111787434039709E-2</v>
       </c>
       <c r="P25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-0.16113062238620193</v>
       </c>
     </row>
@@ -8231,7 +8210,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <f t="shared" si="4"/>
+        <f>IF(A9=0,$C$31,$C$32)</f>
         <v>0.37754066879814541</v>
       </c>
       <c r="I26">
@@ -8239,7 +8218,7 @@
         <v>2.9312230751356316E-2</v>
       </c>
       <c r="J26">
-        <f t="shared" si="5"/>
+        <f>IF(A9=0,$E$31,$E$32)</f>
         <v>7.5858180021243546E-2</v>
       </c>
       <c r="K26">
@@ -8247,25 +8226,25 @@
         <v>0.18242552380635632</v>
       </c>
       <c r="M26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-0.68185388892607468</v>
       </c>
       <c r="N26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-2.4708252927908343</v>
       </c>
       <c r="O26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-0.77366692028776496</v>
       </c>
       <c r="P26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-0.51042398339482575</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -8274,7 +8253,7 @@
         <v>-2</v>
       </c>
       <c r="H27">
-        <f t="shared" si="4"/>
+        <f>IF(A10=0,$C$31,$C$32)</f>
         <v>0.37754066879814541</v>
       </c>
       <c r="I27">
@@ -8282,7 +8261,7 @@
         <v>0.97068776924864364</v>
       </c>
       <c r="J27">
-        <f t="shared" si="5"/>
+        <f>IF(A10=0,$E$31,$E$32)</f>
         <v>7.5858180021243546E-2</v>
       </c>
       <c r="K27">
@@ -8290,19 +8269,19 @@
         <v>0.81757447619364365</v>
       </c>
       <c r="M27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-0.77926158734408546</v>
       </c>
       <c r="N27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-2.3800334618096487E-2</v>
       </c>
       <c r="O27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-0.51577794685850986</v>
       </c>
       <c r="P27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-4.0282655596550476E-2</v>
       </c>
     </row>
@@ -8326,13 +8305,13 @@
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
         <v>6</v>
@@ -8340,7 +8319,7 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31">
         <f>1/(1+EXP($D24+$D25+D27))</f>
@@ -8372,7 +8351,7 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <f>EXP($D24+$D25+D27)/(1+EXP($D24+$D25+D27))</f>
@@ -8391,7 +8370,7 @@
         <v>0.18242552380635632</v>
       </c>
       <c r="M32" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <f>+N31+P31</f>
@@ -8400,7 +8379,7 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -8411,10 +8390,10 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D35">
         <v>-0.5</v>
@@ -8436,19 +8415,19 @@
         <v>0.37754066879814546</v>
       </c>
       <c r="M35">
-        <f t="shared" ref="M35:N38" si="8">$D7*LN(H35)</f>
+        <f t="shared" ref="M35:N38" si="6">$D7*LN(H35)</f>
         <v>-2.0141327798275242E-2</v>
       </c>
       <c r="N35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-0.45110477448485942</v>
       </c>
       <c r="O35">
-        <f t="shared" ref="O35:P38" si="9">$E7*LN(J35)</f>
+        <f t="shared" ref="O35:P38" si="7">$E7*LN(J35)</f>
         <v>-0.18127195018447717</v>
       </c>
       <c r="P35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.87666928576209591</v>
       </c>
     </row>
@@ -8476,19 +8455,19 @@
         <v>0.62245933120185459</v>
       </c>
       <c r="M36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-4.0282655596550483E-2</v>
       </c>
       <c r="N36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-2.2095489697187653E-3</v>
       </c>
       <c r="O36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.16113062238620193</v>
       </c>
       <c r="P36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.37926158734408533</v>
       </c>
     </row>
@@ -8517,25 +8496,25 @@
         <v>0.37754066879814546</v>
       </c>
       <c r="M37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-1.1909892945879266</v>
       </c>
       <c r="N37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-3.1577334213940156</v>
       </c>
       <c r="O37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.51042398339482575</v>
       </c>
       <c r="P37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.29222309525403201</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -8560,25 +8539,25 @@
         <v>0.62245933120185459</v>
       </c>
       <c r="M38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-1.3611306223862021</v>
       </c>
       <c r="N38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-8.8381958788750613E-3</v>
       </c>
       <c r="O38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.34028265559655041</v>
       </c>
       <c r="P38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-9.4815396836021304E-2</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -8627,19 +8606,19 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F43" t="s">
         <v>6</v>
       </c>
       <c r="M43" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N43">
         <f>+N42+P42</f>
@@ -8648,7 +8627,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <f>1/(1+EXP($D$35+$D$36+D$38+D$39))</f>
@@ -8669,7 +8648,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C45">
         <f>EXP($D$35+$D$36+D$38+D$39)/(1+EXP($D$35+$D$36+D$38+D$39))</f>
@@ -8690,15 +8669,15 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H47" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J47" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="H48" t="s">
         <v>5</v>
@@ -8718,44 +8697,44 @@
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D49">
         <v>-0.5</v>
       </c>
       <c r="H49">
-        <f t="shared" ref="H49:I52" si="10">IF(A7=0,$C$56,$C$57)</f>
+        <f t="shared" ref="H49:I52" si="8">IF(A7=0,$C$56,$C$57)</f>
         <v>0.62245933120185459</v>
       </c>
       <c r="I49">
+        <f t="shared" si="8"/>
+        <v>0.62245933120185459</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ref="J49:K52" si="9">IF(A7=0,$E$56,$E$57)</f>
+        <v>0.92414181997875644</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="9"/>
+        <v>0.92414181997875644</v>
+      </c>
+      <c r="M49">
+        <f t="shared" ref="M49:N52" si="10">$D7*LN(H49)*H$6</f>
+        <v>-3.3185388892607463E-2</v>
+      </c>
+      <c r="N49">
         <f t="shared" si="10"/>
-        <v>0.62245933120185459</v>
-      </c>
-      <c r="J49">
-        <f t="shared" ref="J49:K52" si="11">IF(A7=0,$E$56,$E$57)</f>
-        <v>0.92414181997875644</v>
-      </c>
-      <c r="K49">
+        <v>-4.2666928576209601E-2</v>
+      </c>
+      <c r="O49">
+        <f t="shared" ref="O49:P52" si="11">$E7*LN(J49)*H$6</f>
+        <v>-4.9700532604306263E-2</v>
+      </c>
+      <c r="P49">
         <f t="shared" si="11"/>
-        <v>0.92414181997875644</v>
-      </c>
-      <c r="M49">
-        <f t="shared" ref="M49:N52" si="12">$D7*LN(H49)*H$6</f>
-        <v>-3.3185388892607463E-2</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="12"/>
-        <v>-4.2666928576209601E-2</v>
-      </c>
-      <c r="O49">
-        <f t="shared" ref="O49:P52" si="13">$E7*LN(J49)*H$6</f>
-        <v>-4.9700532604306263E-2</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="13"/>
         <v>-6.39006847769652E-2</v>
       </c>
     </row>
@@ -8767,35 +8746,35 @@
         <v>-1</v>
       </c>
       <c r="H50">
+        <f t="shared" si="8"/>
+        <v>0.62245933120185459</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="8"/>
+        <v>0.37754066879814541</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="9"/>
+        <v>0.92414181997875644</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="9"/>
+        <v>7.5858180021243546E-2</v>
+      </c>
+      <c r="M50">
         <f t="shared" si="10"/>
-        <v>0.62245933120185459</v>
-      </c>
-      <c r="I50">
+        <v>-6.6370777785214927E-2</v>
+      </c>
+      <c r="N50">
         <f t="shared" si="10"/>
-        <v>0.37754066879814541</v>
-      </c>
-      <c r="J50">
+        <v>-0.17533385715241923</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="11"/>
-        <v>0.92414181997875644</v>
-      </c>
-      <c r="K50">
+        <v>-4.4178251203827797E-2</v>
+      </c>
+      <c r="P50">
         <f t="shared" si="11"/>
-        <v>7.5858180021243546E-2</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="12"/>
-        <v>-6.6370777785214927E-2</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="12"/>
-        <v>-0.17533385715241923</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="13"/>
-        <v>-4.4178251203827797E-2</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="13"/>
         <v>-1.8568006086906359</v>
       </c>
     </row>
@@ -8808,41 +8787,41 @@
         <v>1</v>
       </c>
       <c r="H51">
+        <f t="shared" si="8"/>
+        <v>0.37754066879814541</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="8"/>
+        <v>0.62245933120185459</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="9"/>
+        <v>7.5858180021243546E-2</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="9"/>
+        <v>0.92414181997875644</v>
+      </c>
+      <c r="M51">
         <f t="shared" si="10"/>
-        <v>0.37754066879814541</v>
-      </c>
-      <c r="I51">
+        <v>-0.47729772224825223</v>
+      </c>
+      <c r="N51">
         <f t="shared" si="10"/>
-        <v>0.62245933120185459</v>
-      </c>
-      <c r="J51">
+        <v>-0.29866850003346718</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="11"/>
-        <v>7.5858180021243546E-2</v>
-      </c>
-      <c r="K51">
+        <v>-0.54156684420143542</v>
+      </c>
+      <c r="P51">
         <f t="shared" si="11"/>
-        <v>0.92414181997875644</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="12"/>
-        <v>-0.47729772224825223</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="12"/>
-        <v>-0.29866850003346718</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="13"/>
-        <v>-0.54156684420143542</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="13"/>
         <v>-2.1300228258988405E-2</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -8852,61 +8831,61 @@
         <v>-2</v>
       </c>
       <c r="H52">
+        <f t="shared" si="8"/>
+        <v>0.37754066879814541</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="8"/>
+        <v>0.37754066879814541</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="9"/>
+        <v>7.5858180021243546E-2</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="9"/>
+        <v>7.5858180021243546E-2</v>
+      </c>
+      <c r="M52">
         <f t="shared" si="10"/>
-        <v>0.37754066879814541</v>
-      </c>
-      <c r="I52">
+        <v>-0.54548311114085979</v>
+      </c>
+      <c r="N52">
         <f t="shared" si="10"/>
-        <v>0.37754066879814541</v>
-      </c>
-      <c r="J52">
+        <v>-0.7013354286096769</v>
+      </c>
+      <c r="O52">
         <f t="shared" si="11"/>
-        <v>7.5858180021243546E-2</v>
-      </c>
-      <c r="K52">
+        <v>-0.36104456280095687</v>
+      </c>
+      <c r="P52">
         <f t="shared" si="11"/>
-        <v>7.5858180021243546E-2</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="12"/>
-        <v>-0.54548311114085979</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="12"/>
-        <v>-0.7013354286096769</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="13"/>
-        <v>-0.36104456280095687</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="13"/>
         <v>-0.46420015217265886</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" t="s">
+        <v>42</v>
+      </c>
+      <c r="J55" t="s">
         <v>43</v>
-      </c>
-      <c r="D55" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" t="s">
-        <v>40</v>
-      </c>
-      <c r="H55" t="s">
-        <v>38</v>
-      </c>
-      <c r="J55" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56">
         <f>1/(1+EXP($D$49+$D$50+D$52))</f>
@@ -8925,41 +8904,41 @@
         <v>0.81757447619364365</v>
       </c>
       <c r="H56">
-        <f t="shared" ref="H56:I59" si="14">IF(A7=0,$D$56,$D$57)</f>
+        <f t="shared" ref="H56:I59" si="12">IF(A7=0,$D$56,$D$57)</f>
         <v>2.9312230751356316E-2</v>
       </c>
       <c r="I56">
+        <f t="shared" si="12"/>
+        <v>2.9312230751356316E-2</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ref="J56:K59" si="13">IF(A7=0,$F$56,$F$57)</f>
+        <v>0.18242552380635632</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="13"/>
+        <v>0.18242552380635632</v>
+      </c>
+      <c r="M56">
+        <f t="shared" ref="M56:N59" si="14">$D7*LN(H56)*H$7</f>
+        <v>-0.10589251254817864</v>
+      </c>
+      <c r="N56">
         <f t="shared" si="14"/>
-        <v>2.9312230751356316E-2</v>
-      </c>
-      <c r="J56">
-        <f t="shared" ref="J56:K59" si="15">IF(A7=0,$F$56,$F$57)</f>
-        <v>0.18242552380635632</v>
-      </c>
-      <c r="K56">
+        <v>-3.5297504182726203E-2</v>
+      </c>
+      <c r="O56">
+        <f t="shared" ref="O56:P59" si="15">$E7*LN(J56)*H$7</f>
+        <v>-0.45938158505534321</v>
+      </c>
+      <c r="P56">
         <f t="shared" si="15"/>
-        <v>0.18242552380635632</v>
-      </c>
-      <c r="M56">
-        <f t="shared" ref="M56:N59" si="16">$D7*LN(H56)*H$7</f>
-        <v>-0.10589251254817864</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="16"/>
-        <v>-3.5297504182726203E-2</v>
-      </c>
-      <c r="O56">
-        <f t="shared" ref="O56:P59" si="17">$E7*LN(J56)*H$7</f>
-        <v>-0.45938158505534321</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="17"/>
         <v>-0.15312719501844768</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C57">
         <f>EXP($D$49+$D$50+D$52)/(1+EXP($D$49+$D$50+D$52))</f>
@@ -8978,103 +8957,103 @@
         <v>0.18242552380635632</v>
       </c>
       <c r="H57">
+        <f t="shared" si="12"/>
+        <v>2.9312230751356316E-2</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="12"/>
+        <v>0.97068776924864364</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="13"/>
+        <v>0.18242552380635632</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="13"/>
+        <v>0.81757447619364365</v>
+      </c>
+      <c r="M57">
         <f t="shared" si="14"/>
-        <v>2.9312230751356316E-2</v>
-      </c>
-      <c r="I57">
+        <v>-0.21178502509635727</v>
+      </c>
+      <c r="N57">
         <f t="shared" si="14"/>
-        <v>0.97068776924864364</v>
-      </c>
-      <c r="J57">
+        <v>-5.9500836545241199E-4</v>
+      </c>
+      <c r="O57">
         <f t="shared" si="15"/>
-        <v>0.18242552380635632</v>
-      </c>
-      <c r="K57">
+        <v>-0.40833918671586067</v>
+      </c>
+      <c r="P57">
         <f t="shared" si="15"/>
-        <v>0.81757447619364365</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="16"/>
-        <v>-0.21178502509635727</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="16"/>
-        <v>-5.9500836545241199E-4</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="17"/>
-        <v>-0.40833918671586067</v>
-      </c>
-      <c r="P57">
-        <f t="shared" si="17"/>
         <v>-1.611306223862019E-2</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H58">
+        <f t="shared" si="12"/>
+        <v>0.97068776924864364</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="12"/>
+        <v>2.9312230751356316E-2</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="13"/>
+        <v>0.81757447619364365</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="13"/>
+        <v>0.18242552380635632</v>
+      </c>
+      <c r="M58">
         <f t="shared" si="14"/>
-        <v>0.97068776924864364</v>
-      </c>
-      <c r="I58">
+        <v>-6.2475878372503279E-3</v>
+      </c>
+      <c r="N58">
         <f t="shared" si="14"/>
-        <v>2.9312230751356316E-2</v>
-      </c>
-      <c r="J58">
+        <v>-0.24708252927908336</v>
+      </c>
+      <c r="O58">
         <f t="shared" si="15"/>
-        <v>0.81757447619364365</v>
-      </c>
-      <c r="K58">
+        <v>-1.8127195018447721E-2</v>
+      </c>
+      <c r="P58">
         <f t="shared" si="15"/>
-        <v>0.18242552380635632</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="16"/>
-        <v>-6.2475878372503279E-3</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="16"/>
-        <v>-0.24708252927908336</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="17"/>
-        <v>-1.8127195018447721E-2</v>
-      </c>
-      <c r="P58">
-        <f t="shared" si="17"/>
         <v>-5.1042398339482563E-2</v>
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H59">
+        <f t="shared" si="12"/>
+        <v>0.97068776924864364</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="12"/>
+        <v>0.97068776924864364</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="13"/>
+        <v>0.81757447619364365</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="13"/>
+        <v>0.81757447619364365</v>
+      </c>
+      <c r="M59">
         <f t="shared" si="14"/>
-        <v>0.97068776924864364</v>
-      </c>
-      <c r="I59">
+        <v>-7.1401003854289474E-3</v>
+      </c>
+      <c r="N59">
         <f t="shared" si="14"/>
-        <v>0.97068776924864364</v>
-      </c>
-      <c r="J59">
+        <v>-2.380033461809648E-3</v>
+      </c>
+      <c r="O59">
         <f t="shared" si="15"/>
-        <v>0.81757447619364365</v>
-      </c>
-      <c r="K59">
+        <v>-1.2084796678965145E-2</v>
+      </c>
+      <c r="P59">
         <f t="shared" si="15"/>
-        <v>0.81757447619364365</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="16"/>
-        <v>-7.1401003854289474E-3</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="16"/>
-        <v>-2.380033461809648E-3</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="17"/>
-        <v>-1.2084796678965145E-2</v>
-      </c>
-      <c r="P59">
-        <f t="shared" si="17"/>
         <v>-4.0282655596550468E-3</v>
       </c>
     </row>
@@ -9111,7 +9090,7 @@
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M64" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N64">
         <f>+N63+P63</f>
@@ -9120,13 +9099,13 @@
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="H66" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J66" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M66" t="s">
         <v>17</v>
@@ -9134,44 +9113,44 @@
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D67">
         <v>-0.5</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:I70" si="18">IF(A7=0,$C$75,$C$76)</f>
+        <f t="shared" ref="H67:I70" si="16">IF(A7=0,$C$75,$C$76)</f>
         <v>0.84553473491646525</v>
       </c>
       <c r="I67">
+        <f t="shared" si="16"/>
+        <v>0.84553473491646525</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:K70" si="17">IF(A7=0,$E$75,$E$76)</f>
+        <v>0.78583498304255861</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="17"/>
+        <v>0.78583498304255861</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:N70" si="18">$D7*LN(H67)*H$6</f>
+        <v>-1.1745022057038618E-2</v>
+      </c>
+      <c r="N67">
         <f t="shared" si="18"/>
-        <v>0.84553473491646525</v>
-      </c>
-      <c r="J67">
-        <f t="shared" ref="J67:K70" si="19">IF(A7=0,$E$75,$E$76)</f>
-        <v>0.78583498304255861</v>
-      </c>
-      <c r="K67">
+        <v>-1.5100742644763937E-2</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67:P70" si="19">$E7*LN(J67)*H$6</f>
+        <v>-0.1518353259147851</v>
+      </c>
+      <c r="P67">
         <f t="shared" si="19"/>
-        <v>0.78583498304255861</v>
-      </c>
-      <c r="M67">
-        <f t="shared" ref="M67:N70" si="20">$D7*LN(H67)*H$6</f>
-        <v>-1.1745022057038618E-2</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="20"/>
-        <v>-1.5100742644763937E-2</v>
-      </c>
-      <c r="O67">
-        <f t="shared" ref="O67:P70" si="21">$E7*LN(J67)*H$6</f>
-        <v>-0.1518353259147851</v>
-      </c>
-      <c r="P67">
-        <f t="shared" si="21"/>
         <v>-0.19521684760472371</v>
       </c>
     </row>
@@ -9183,35 +9162,35 @@
         <v>-1</v>
       </c>
       <c r="H68">
+        <f t="shared" si="16"/>
+        <v>0.84553473491646525</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="16"/>
+        <v>0.1544652650835347</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="17"/>
+        <v>0.78583498304255861</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="17"/>
+        <v>0.21416501695744139</v>
+      </c>
+      <c r="M68">
         <f t="shared" si="18"/>
-        <v>0.84553473491646525</v>
-      </c>
-      <c r="I68">
+        <v>-2.3490044114077235E-2</v>
+      </c>
+      <c r="N68">
         <f t="shared" si="18"/>
-        <v>0.1544652650835347</v>
-      </c>
-      <c r="J68">
+        <v>-0.33620148528952792</v>
+      </c>
+      <c r="O68">
         <f t="shared" si="19"/>
-        <v>0.78583498304255861</v>
-      </c>
-      <c r="K68">
+        <v>-0.13496473414647564</v>
+      </c>
+      <c r="P68">
         <f t="shared" si="19"/>
-        <v>0.21416501695744139</v>
-      </c>
-      <c r="M68">
-        <f t="shared" si="20"/>
-        <v>-2.3490044114077235E-2</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="20"/>
-        <v>-0.33620148528952792</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="21"/>
-        <v>-0.13496473414647564</v>
-      </c>
-      <c r="P68">
-        <f t="shared" si="21"/>
         <v>-1.1095260867597545</v>
       </c>
     </row>
@@ -9224,41 +9203,41 @@
         <v>1</v>
       </c>
       <c r="H69">
+        <f t="shared" si="16"/>
+        <v>0.1544652650835347</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="16"/>
+        <v>0.84553473491646525</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="17"/>
+        <v>0.21416501695744139</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="17"/>
+        <v>0.78583498304255861</v>
+      </c>
+      <c r="M69">
         <f t="shared" si="18"/>
-        <v>0.1544652650835347</v>
-      </c>
-      <c r="I69">
+        <v>-0.91521515439927026</v>
+      </c>
+      <c r="N69">
         <f t="shared" si="18"/>
-        <v>0.84553473491646525</v>
-      </c>
-      <c r="J69">
+        <v>-0.10570519851334755</v>
+      </c>
+      <c r="O69">
         <f t="shared" si="19"/>
-        <v>0.21416501695744139</v>
-      </c>
-      <c r="K69">
+        <v>-0.32361177530492841</v>
+      </c>
+      <c r="P69">
         <f t="shared" si="19"/>
-        <v>0.78583498304255861</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="20"/>
-        <v>-0.91521515439927026</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="20"/>
-        <v>-0.10570519851334755</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="21"/>
-        <v>-0.32361177530492841</v>
-      </c>
-      <c r="P69">
-        <f t="shared" si="21"/>
         <v>-6.5072282534907919E-2</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -9268,41 +9247,41 @@
         <v>-2</v>
       </c>
       <c r="H70">
+        <f t="shared" si="16"/>
+        <v>0.1544652650835347</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="16"/>
+        <v>0.1544652650835347</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="17"/>
+        <v>0.21416501695744139</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="17"/>
+        <v>0.21416501695744139</v>
+      </c>
+      <c r="M70">
         <f t="shared" si="18"/>
-        <v>0.1544652650835347</v>
-      </c>
-      <c r="I70">
+        <v>-1.0459601764563089</v>
+      </c>
+      <c r="N70">
         <f t="shared" si="18"/>
-        <v>0.1544652650835347</v>
-      </c>
-      <c r="J70">
+        <v>-1.3448059411581117</v>
+      </c>
+      <c r="O70">
         <f t="shared" si="19"/>
-        <v>0.21416501695744139</v>
-      </c>
-      <c r="K70">
+        <v>-0.21574118353661884</v>
+      </c>
+      <c r="P70">
         <f t="shared" si="19"/>
-        <v>0.21416501695744139</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="20"/>
-        <v>-1.0459601764563089</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="20"/>
-        <v>-1.3448059411581117</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="21"/>
-        <v>-0.21574118353661884</v>
-      </c>
-      <c r="P70">
-        <f t="shared" si="21"/>
         <v>-0.27738152168993851</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D71">
         <v>1.2</v>
@@ -9322,61 +9301,61 @@
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H73" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J73" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D74" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E74" t="s">
+        <v>48</v>
+      </c>
+      <c r="F74" t="s">
         <v>44</v>
       </c>
-      <c r="F74" t="s">
-        <v>40</v>
-      </c>
       <c r="H74">
-        <f t="shared" ref="H74:I77" si="22">IF(A7=0,$D$75,$D$76)</f>
+        <f t="shared" ref="H74:I77" si="20">IF(A7=0,$D$75,$D$76)</f>
         <v>9.0132986528479453E-3</v>
       </c>
       <c r="I74">
+        <f t="shared" si="20"/>
+        <v>9.0132986528479453E-3</v>
+      </c>
+      <c r="J74">
+        <f t="shared" ref="J74:K77" si="21">IF(A7=0,$F$75,$F$76)</f>
+        <v>0.42555748318834097</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="21"/>
+        <v>0.42555748318834097</v>
+      </c>
+      <c r="M74">
+        <f t="shared" ref="M74:N77" si="22">$D7*LN(H74)*H$7</f>
+        <v>-0.14127162492509626</v>
+      </c>
+      <c r="N74">
         <f t="shared" si="22"/>
-        <v>9.0132986528479453E-3</v>
-      </c>
-      <c r="J74">
-        <f t="shared" ref="J74:K77" si="23">IF(A7=0,$F$75,$F$76)</f>
-        <v>0.42555748318834097</v>
-      </c>
-      <c r="K74">
+        <v>-4.7090541641698735E-2</v>
+      </c>
+      <c r="O74">
+        <f t="shared" ref="O74:P77" si="23">$E7*LN(J74)*H$7</f>
+        <v>-0.23067591600650239</v>
+      </c>
+      <c r="P74">
         <f t="shared" si="23"/>
-        <v>0.42555748318834097</v>
-      </c>
-      <c r="M74">
-        <f t="shared" ref="M74:N77" si="24">$D7*LN(H74)*H$7</f>
-        <v>-0.14127162492509626</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="24"/>
-        <v>-4.7090541641698735E-2</v>
-      </c>
-      <c r="O74">
-        <f t="shared" ref="O74:P77" si="25">$E7*LN(J74)*H$7</f>
-        <v>-0.23067591600650239</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="25"/>
         <v>-7.6891972002167436E-2</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C75">
         <f>1/(1+EXP(D$67+D$68+D$70+D$71))</f>
@@ -9395,41 +9374,41 @@
         <v>0.57444251681165903</v>
       </c>
       <c r="H75">
+        <f t="shared" si="20"/>
+        <v>9.0132986528479453E-3</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="20"/>
+        <v>0.99098670134715205</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="21"/>
+        <v>0.42555748318834097</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="21"/>
+        <v>0.57444251681165903</v>
+      </c>
+      <c r="M75">
         <f t="shared" si="22"/>
-        <v>9.0132986528479453E-3</v>
-      </c>
-      <c r="I75">
+        <v>-0.28254324985019252</v>
+      </c>
+      <c r="N75">
         <f t="shared" si="22"/>
-        <v>0.99098670134715205</v>
-      </c>
-      <c r="J75">
+        <v>-1.8108328339775214E-4</v>
+      </c>
+      <c r="O75">
         <f t="shared" si="23"/>
-        <v>0.42555748318834097</v>
-      </c>
-      <c r="K75">
+        <v>-0.20504525867244655</v>
+      </c>
+      <c r="P75">
         <f t="shared" si="23"/>
-        <v>0.57444251681165903</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="24"/>
-        <v>-0.28254324985019252</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="24"/>
-        <v>-1.8108328339775214E-4</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="25"/>
-        <v>-0.20504525867244655</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="25"/>
         <v>-4.4348419557482158E-2</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C76">
         <f>1-C75</f>
@@ -9448,69 +9427,69 @@
         <v>0.42555748318834097</v>
       </c>
       <c r="H76">
+        <f t="shared" si="20"/>
+        <v>0.99098670134715205</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="20"/>
+        <v>9.0132986528479453E-3</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="21"/>
+        <v>0.57444251681165903</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="21"/>
+        <v>0.42555748318834097</v>
+      </c>
+      <c r="M76">
         <f t="shared" si="22"/>
-        <v>0.99098670134715205</v>
-      </c>
-      <c r="I76">
+        <v>-1.9013744756763975E-3</v>
+      </c>
+      <c r="N76">
         <f t="shared" si="22"/>
-        <v>9.0132986528479453E-3</v>
-      </c>
-      <c r="J76">
+        <v>-0.32963379149189109</v>
+      </c>
+      <c r="O76">
         <f t="shared" si="23"/>
-        <v>0.57444251681165903</v>
-      </c>
-      <c r="K76">
+        <v>-4.9891972002167446E-2</v>
+      </c>
+      <c r="P76">
         <f t="shared" si="23"/>
-        <v>0.42555748318834097</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="24"/>
-        <v>-1.9013744756763975E-3</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="24"/>
-        <v>-0.32963379149189109</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="25"/>
-        <v>-4.9891972002167446E-2</v>
-      </c>
-      <c r="P76">
-        <f t="shared" si="25"/>
         <v>-2.5630657334055812E-2</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H77">
+        <f t="shared" si="20"/>
+        <v>0.99098670134715205</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="20"/>
+        <v>0.99098670134715205</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="21"/>
+        <v>0.57444251681165903</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="21"/>
+        <v>0.57444251681165903</v>
+      </c>
+      <c r="M77">
         <f t="shared" si="22"/>
-        <v>0.99098670134715205</v>
-      </c>
-      <c r="I77">
+        <v>-2.1729994007730264E-3</v>
+      </c>
+      <c r="N77">
         <f t="shared" si="22"/>
-        <v>0.99098670134715205</v>
-      </c>
-      <c r="J77">
+        <v>-7.2433313359100855E-4</v>
+      </c>
+      <c r="O77">
         <f t="shared" si="23"/>
-        <v>0.57444251681165903</v>
-      </c>
-      <c r="K77">
+        <v>-3.3261314668111615E-2</v>
+      </c>
+      <c r="P77">
         <f t="shared" si="23"/>
-        <v>0.57444251681165903</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="24"/>
-        <v>-2.1729994007730264E-3</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="24"/>
-        <v>-7.2433313359100855E-4</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="25"/>
-        <v>-3.3261314668111615E-2</v>
-      </c>
-      <c r="P77">
-        <f t="shared" si="25"/>
         <v>-1.1087104889370534E-2</v>
       </c>
     </row>
@@ -9547,7 +9526,7 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M82" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N82">
         <f>+N81+P81</f>
@@ -9556,7 +9535,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
@@ -9564,18 +9543,18 @@
         <v>63</v>
       </c>
       <c r="C85" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D85">
         <v>-0.5</v>
       </c>
       <c r="H85" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D86">
         <v>-1</v>
@@ -9585,21 +9564,21 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I86" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J86" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K86" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D87">
         <v>1.5</v>
@@ -9626,7 +9605,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D88">
         <v>0.3</v>
@@ -9653,7 +9632,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D89">
         <v>0.7</v>
@@ -9695,7 +9674,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H92" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="M92" t="s">
         <v>17</v>
@@ -9703,137 +9682,137 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H93">
-        <f t="shared" ref="H93:I96" si="26">IF(A7=0,1/(1+H87),H87/(1+H87))</f>
+        <f t="shared" ref="H93:I96" si="24">IF(A7=0,1/(1+H87),H87/(1+H87))</f>
         <v>2.0449069171038892E-2</v>
       </c>
       <c r="I93">
+        <f t="shared" si="24"/>
+        <v>2.0449069171038892E-2</v>
+      </c>
+      <c r="J93">
+        <f t="shared" ref="J93:K96" si="25">IF(A7=0,1/(1+J87),J87/(1+J87))</f>
+        <v>0.95235485012675158</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="25"/>
+        <v>0.95235485012675158</v>
+      </c>
+      <c r="M93">
+        <f t="shared" ref="M93:N96" si="26">$D7*LN(H93)</f>
+        <v>-0.38898179148378825</v>
+      </c>
+      <c r="N93">
         <f t="shared" si="26"/>
-        <v>2.0449069171038892E-2</v>
-      </c>
-      <c r="J93">
-        <f t="shared" ref="J93:K96" si="27">IF(A7=0,1/(1+J87),J87/(1+J87))</f>
-        <v>0.95235485012675158</v>
-      </c>
-      <c r="K93">
+        <v>-0.38898179148378825</v>
+      </c>
+      <c r="O93">
+        <f t="shared" ref="O93:P96" si="27">$E7*LN(J93)</f>
+        <v>-4.3935814720738424E-2</v>
+      </c>
+      <c r="P93">
         <f t="shared" si="27"/>
-        <v>0.95235485012675158</v>
-      </c>
-      <c r="M93">
-        <f t="shared" ref="M93:N96" si="28">$D7*LN(H93)</f>
-        <v>-0.38898179148378825</v>
-      </c>
-      <c r="N93">
-        <f t="shared" si="28"/>
-        <v>-0.38898179148378825</v>
-      </c>
-      <c r="O93">
-        <f t="shared" ref="O93:P96" si="29">$E7*LN(J93)</f>
-        <v>-4.3935814720738424E-2</v>
-      </c>
-      <c r="P93">
-        <f t="shared" si="29"/>
         <v>-4.3935814720738424E-2</v>
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H94">
+        <f t="shared" si="24"/>
+        <v>5.9555941748755788E-2</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="24"/>
+        <v>0.94044405825124433</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="25"/>
+        <v>0.89181694026442693</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="25"/>
+        <v>0.10818305973557302</v>
+      </c>
+      <c r="M94">
         <f t="shared" si="26"/>
-        <v>5.9555941748755788E-2</v>
-      </c>
-      <c r="I94">
+        <v>-0.56416784213625248</v>
+      </c>
+      <c r="N94">
         <f t="shared" si="26"/>
-        <v>0.94044405825124433</v>
-      </c>
-      <c r="J94">
+        <v>-1.2280622574005889E-2</v>
+      </c>
+      <c r="O94">
         <f t="shared" si="27"/>
-        <v>0.89181694026442693</v>
-      </c>
-      <c r="K94">
+        <v>-9.1595513105793253E-2</v>
+      </c>
+      <c r="P94">
         <f t="shared" si="27"/>
-        <v>0.10818305973557302</v>
-      </c>
-      <c r="M94">
-        <f t="shared" si="28"/>
-        <v>-0.56416784213625248</v>
-      </c>
-      <c r="N94">
-        <f t="shared" si="28"/>
-        <v>-1.2280622574005889E-2</v>
-      </c>
-      <c r="O94">
-        <f t="shared" si="29"/>
-        <v>-9.1595513105793253E-2</v>
-      </c>
-      <c r="P94">
-        <f t="shared" si="29"/>
         <v>-1.7791443913547793</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H95">
+        <f t="shared" si="24"/>
+        <v>0.83535164822297658</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="24"/>
+        <v>0.16464835177702344</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="25"/>
+        <v>0.3456895594048115</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="25"/>
+        <v>0.6543104405951885</v>
+      </c>
+      <c r="M95">
         <f t="shared" si="26"/>
-        <v>0.83535164822297658</v>
-      </c>
-      <c r="I95">
+        <v>-0.12593175503132609</v>
+      </c>
+      <c r="N95">
         <f t="shared" si="26"/>
-        <v>0.16464835177702344</v>
-      </c>
-      <c r="J95">
+        <v>-1.2627602964720437</v>
+      </c>
+      <c r="O95">
         <f t="shared" si="27"/>
-        <v>0.3456895594048115</v>
-      </c>
-      <c r="K95">
+        <v>-0.31866424014820283</v>
+      </c>
+      <c r="P95">
         <f t="shared" si="27"/>
-        <v>0.6543104405951885</v>
-      </c>
-      <c r="M95">
-        <f t="shared" si="28"/>
-        <v>-0.12593175503132609</v>
-      </c>
-      <c r="N95">
-        <f t="shared" si="28"/>
-        <v>-1.2627602964720437</v>
-      </c>
-      <c r="O95">
-        <f t="shared" si="29"/>
-        <v>-0.31866424014820283</v>
-      </c>
-      <c r="P95">
-        <f t="shared" si="29"/>
         <v>-0.12725200810218096</v>
       </c>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H96">
+        <f t="shared" si="24"/>
+        <v>0.67156936383305932</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="24"/>
+        <v>0.67156936383305932</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="25"/>
+        <v>0.51517242918133754</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="25"/>
+        <v>0.51517242918133754</v>
+      </c>
+      <c r="M96">
         <f t="shared" si="26"/>
-        <v>0.67156936383305932</v>
-      </c>
-      <c r="I96">
+        <v>-0.31851037720492142</v>
+      </c>
+      <c r="N96">
         <f t="shared" si="26"/>
-        <v>0.67156936383305932</v>
-      </c>
-      <c r="J96">
+        <v>-0.31851037720492142</v>
+      </c>
+      <c r="O96">
         <f t="shared" si="27"/>
-        <v>0.51517242918133754</v>
-      </c>
-      <c r="K96">
+        <v>-0.13265072408234738</v>
+      </c>
+      <c r="P96">
         <f t="shared" si="27"/>
-        <v>0.51517242918133754</v>
-      </c>
-      <c r="M96">
-        <f t="shared" si="28"/>
-        <v>-0.31851037720492142</v>
-      </c>
-      <c r="N96">
-        <f t="shared" si="28"/>
-        <v>-0.31851037720492142</v>
-      </c>
-      <c r="O96">
-        <f t="shared" si="29"/>
-        <v>-0.13265072408234738</v>
-      </c>
-      <c r="P96">
-        <f t="shared" si="29"/>
         <v>-0.13265072408234738</v>
       </c>
     </row>
@@ -9870,7 +9849,7 @@
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M101" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N101">
         <f>+N100+P100</f>
@@ -9879,65 +9858,65 @@
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C104" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D104">
         <v>-0.5</v>
       </c>
       <c r="H104" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D105">
         <v>-1</v>
       </c>
       <c r="E105" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F105">
         <f>-D105</f>
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I105" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J105" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K105" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D106">
         <v>1.5</v>
       </c>
       <c r="E106" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F106">
         <v>-1.5</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H106">
         <f>EXP($D$104+D$105+D$106*$N3+D$107*S$2+$D$108*S$3)</f>
@@ -9958,19 +9937,19 @@
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D107">
         <v>0.3</v>
       </c>
       <c r="E107" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F107">
         <v>-0.3</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H107">
         <f>EXP($D$104+D$105+D$106*$N4+D$107*S$2+$D$108*S$3)</f>
@@ -9991,13 +9970,13 @@
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D108">
         <v>0.7</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H108">
         <f>EXP($D$104+D$105+D$106*$N5+D$107*S$2+$D$108*S$3)</f>
@@ -10018,7 +9997,7 @@
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G109" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H109">
         <f>EXP($D$104+D$105+D$106*$N6+D$107*S$2+$D$108*S$3)</f>
@@ -10039,7 +10018,7 @@
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H111" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="M111" t="s">
         <v>17</v>
@@ -10047,141 +10026,141 @@
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H112">
-        <f t="shared" ref="H112:I115" si="30">IF(A7=0,1/(1+H106),H106/(1+H106))</f>
+        <f t="shared" ref="H112:I115" si="28">IF(A7=0,1/(1+H106),H106/(1+H106))</f>
         <v>9.8486381556037811E-2</v>
       </c>
       <c r="I112">
+        <f t="shared" si="28"/>
+        <v>0.14013648065558845</v>
+      </c>
+      <c r="J112">
+        <f t="shared" ref="J112:K115" si="29">IF(A7=0,1/(1+J106),J106/(1+J106))</f>
+        <v>0.98226213981136334</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="29"/>
+        <v>0.99340061047493056</v>
+      </c>
+      <c r="M112">
+        <f t="shared" ref="M112:N115" si="30">$D7*LN(H112)</f>
+        <v>-0.23178369986769926</v>
+      </c>
+      <c r="N112">
         <f t="shared" si="30"/>
-        <v>0.14013648065558845</v>
-      </c>
-      <c r="J112">
-        <f t="shared" ref="J112:K115" si="31">IF(A7=0,1/(1+J106),J106/(1+J106))</f>
-        <v>0.98226213981136334</v>
-      </c>
-      <c r="K112">
+        <v>-0.19651384694163943</v>
+      </c>
+      <c r="O112">
+        <f t="shared" ref="O112:P115" si="31">$E7*LN(J112)</f>
+        <v>-1.610735528970959E-2</v>
+      </c>
+      <c r="P112">
         <f t="shared" si="31"/>
-        <v>0.99340061047493056</v>
-      </c>
-      <c r="M112">
-        <f t="shared" ref="M112:N115" si="32">$D7*LN(H112)</f>
-        <v>-0.23178369986769926</v>
-      </c>
-      <c r="N112">
-        <f t="shared" si="32"/>
-        <v>-0.19651384694163943</v>
-      </c>
-      <c r="O112">
-        <f t="shared" ref="O112:P115" si="33">$E7*LN(J112)</f>
-        <v>-1.610735528970959E-2</v>
-      </c>
-      <c r="P112">
-        <f t="shared" si="33"/>
         <v>-5.9591356004175134E-3</v>
       </c>
     </row>
-    <row r="113" spans="8:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H113">
+        <f t="shared" si="28"/>
+        <v>0.2360540749854971</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="28"/>
+        <v>0.68447972860084016</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="29"/>
+        <v>0.95140578149639687</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="29"/>
+        <v>1.8443345657192817E-2</v>
+      </c>
+      <c r="M113">
         <f t="shared" si="30"/>
-        <v>0.2360540749854971</v>
-      </c>
-      <c r="I113">
+        <v>-0.28873887378172275</v>
+      </c>
+      <c r="N113">
         <f t="shared" si="30"/>
-        <v>0.68447972860084016</v>
-      </c>
-      <c r="J113">
+        <v>-7.5819249918464754E-2</v>
+      </c>
+      <c r="O113">
         <f t="shared" si="31"/>
-        <v>0.95140578149639687</v>
-      </c>
-      <c r="K113">
+        <v>-3.9851694537654261E-2</v>
+      </c>
+      <c r="P113">
         <f t="shared" si="31"/>
-        <v>1.8443345657192817E-2</v>
-      </c>
-      <c r="M113">
-        <f t="shared" si="32"/>
-        <v>-0.28873887378172275</v>
-      </c>
-      <c r="N113">
-        <f t="shared" si="32"/>
-        <v>-7.5819249918464754E-2</v>
-      </c>
-      <c r="O113">
-        <f t="shared" si="33"/>
-        <v>-3.9851694537654261E-2</v>
-      </c>
-      <c r="P113">
-        <f t="shared" si="33"/>
         <v>-3.1944413140313141</v>
       </c>
     </row>
-    <row r="114" spans="8:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H114">
+        <f t="shared" si="28"/>
+        <v>0.48951173210986448</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="28"/>
+        <v>0.60872577605750777</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="29"/>
+        <v>0.14703588892788225</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="29"/>
+        <v>0.94036585944177598</v>
+      </c>
+      <c r="M114">
         <f t="shared" si="30"/>
-        <v>0.48951173210986448</v>
-      </c>
-      <c r="I114">
+        <v>-0.50004279483253289</v>
+      </c>
+      <c r="N114">
         <f t="shared" si="30"/>
-        <v>0.60872577605750777</v>
-      </c>
-      <c r="J114">
+        <v>-0.3474711788107761</v>
+      </c>
+      <c r="O114">
         <f t="shared" si="31"/>
-        <v>0.14703588892788225</v>
-      </c>
-      <c r="K114">
+        <v>-0.57512357389042579</v>
+      </c>
+      <c r="P114">
         <f t="shared" si="31"/>
-        <v>0.94036585944177598</v>
-      </c>
-      <c r="M114">
-        <f t="shared" si="32"/>
-        <v>-0.50004279483253289</v>
-      </c>
-      <c r="N114">
-        <f t="shared" si="32"/>
-        <v>-0.3474711788107761</v>
-      </c>
-      <c r="O114">
-        <f t="shared" si="33"/>
-        <v>-0.57512357389042579</v>
-      </c>
-      <c r="P114">
-        <f t="shared" si="33"/>
         <v>-1.8445880180818549E-2</v>
       </c>
     </row>
-    <row r="115" spans="8:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H115">
+        <f t="shared" si="28"/>
+        <v>0.33076915285664638</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="28"/>
+        <v>0.24885873042361681</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="29"/>
+        <v>0.25062313740670272</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="29"/>
+        <v>0.10955529133563223</v>
+      </c>
+      <c r="M115">
         <f t="shared" si="30"/>
-        <v>0.33076915285664638</v>
-      </c>
-      <c r="I115">
+        <v>-0.88506765624937733</v>
+      </c>
+      <c r="N115">
         <f t="shared" si="30"/>
-        <v>0.24885873042361681</v>
-      </c>
-      <c r="J115">
+        <v>-1.1126959129730807</v>
+      </c>
+      <c r="O115">
         <f t="shared" si="31"/>
-        <v>0.25062313740670272</v>
-      </c>
-      <c r="K115">
+        <v>-0.27676098254852477</v>
+      </c>
+      <c r="P115">
         <f t="shared" si="31"/>
-        <v>0.10955529133563223</v>
-      </c>
-      <c r="M115">
-        <f t="shared" si="32"/>
-        <v>-0.88506765624937733</v>
-      </c>
-      <c r="N115">
-        <f t="shared" si="32"/>
-        <v>-1.1126959129730807</v>
-      </c>
-      <c r="O115">
-        <f t="shared" si="33"/>
-        <v>-0.27676098254852477</v>
-      </c>
-      <c r="P115">
-        <f t="shared" si="33"/>
         <v>-0.44226518269247023</v>
       </c>
     </row>
-    <row r="117" spans="8:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:29" x14ac:dyDescent="0.2">
       <c r="M117">
         <f>SUM(M105:M115)</f>
         <v>-1.9056330247313322</v>
@@ -10199,13 +10178,13 @@
         <v>-3.6611115125050206</v>
       </c>
     </row>
-    <row r="118" spans="8:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H118">
         <f>D$105+D$106*$N3+D$107*S$2+$D$108*S$3</f>
         <v>-1.7141568686511506</v>
       </c>
     </row>
-    <row r="119" spans="8:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:29" x14ac:dyDescent="0.2">
       <c r="M119" t="s">
         <v>28</v>
       </c>
@@ -10218,1628 +10197,754 @@
         <v>-4.5689551187713349</v>
       </c>
     </row>
-    <row r="120" spans="8:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:29" x14ac:dyDescent="0.2">
       <c r="M120" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N120">
         <f>+N119+P119</f>
         <v>-8.207088332146629</v>
       </c>
     </row>
-    <row r="123" spans="8:20" x14ac:dyDescent="0.2">
-      <c r="R123" t="s">
-        <v>112</v>
-      </c>
-      <c r="S123">
-        <f>AVERAGE(D7:D10)</f>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="124" spans="8:20" x14ac:dyDescent="0.2">
-      <c r="S124">
-        <f>AVERAGE(E7:E10)</f>
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="125" spans="8:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="S122" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>85</v>
+      </c>
+      <c r="H123" t="s">
+        <v>86</v>
+      </c>
+      <c r="T123" t="s">
+        <v>103</v>
+      </c>
+      <c r="U123" t="s">
+        <v>104</v>
+      </c>
+      <c r="V123" t="s">
+        <v>104</v>
+      </c>
+      <c r="X123" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="124" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>88</v>
+      </c>
+      <c r="C124" t="s">
+        <v>46</v>
+      </c>
+      <c r="D124">
+        <v>-0.5</v>
+      </c>
+      <c r="H124" t="s">
+        <v>89</v>
+      </c>
+      <c r="J124" t="s">
+        <v>90</v>
+      </c>
+      <c r="U124" t="s">
+        <v>92</v>
+      </c>
+      <c r="V124" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC124" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
+        <v>76</v>
+      </c>
+      <c r="D125">
+        <v>-1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>77</v>
+      </c>
+      <c r="F125">
+        <f>-D125</f>
+        <v>1</v>
+      </c>
+      <c r="H125" t="s">
+        <v>5</v>
+      </c>
+      <c r="I125" t="s">
+        <v>6</v>
+      </c>
+      <c r="J125" t="s">
+        <v>5</v>
+      </c>
+      <c r="K125" t="s">
+        <v>6</v>
+      </c>
       <c r="R125" t="s">
-        <v>113</v>
-      </c>
-      <c r="S125">
-        <f>AVERAGE(H6:I6)</f>
-        <v>0.8</v>
+        <v>79</v>
+      </c>
+      <c r="S125" t="s">
+        <v>101</v>
       </c>
       <c r="T125">
-        <f>AVERAGE(H7:I7)</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="127" spans="8:20" x14ac:dyDescent="0.2">
-      <c r="S127" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="128" spans="8:20" x14ac:dyDescent="0.2">
-      <c r="S128" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="129" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
-        <v>91</v>
-      </c>
-      <c r="H129" t="s">
-        <v>87</v>
-      </c>
-      <c r="S129" t="s">
-        <v>104</v>
-      </c>
-      <c r="U129" t="s">
-        <v>102</v>
-      </c>
-      <c r="W129" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z129" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA129" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB129" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC129" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE129" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI129" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="130" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
-        <v>97</v>
-      </c>
-      <c r="C130" t="s">
-        <v>42</v>
-      </c>
-      <c r="D130">
-        <v>-0.5</v>
-      </c>
-      <c r="H130" t="s">
-        <v>81</v>
-      </c>
-      <c r="J130" t="s">
-        <v>88</v>
-      </c>
-      <c r="S130" t="s">
-        <v>81</v>
-      </c>
-      <c r="T130" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z130" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA130" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB130" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC130" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="131" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="C131" t="s">
-        <v>80</v>
-      </c>
-      <c r="D131">
-        <v>-1</v>
-      </c>
-      <c r="E131" t="s">
-        <v>79</v>
-      </c>
-      <c r="F131">
-        <f>-D131</f>
-        <v>1</v>
-      </c>
-      <c r="H131" t="s">
-        <v>5</v>
-      </c>
-      <c r="I131" t="s">
-        <v>6</v>
-      </c>
-      <c r="J131" t="s">
-        <v>5</v>
-      </c>
-      <c r="K131" t="s">
-        <v>6</v>
-      </c>
-      <c r="R131" t="s">
-        <v>98</v>
-      </c>
-      <c r="S131">
-        <f>H145*S123*S125</f>
-        <v>9.4438526550170501E-3</v>
-      </c>
-      <c r="T131">
-        <f>H151*S123*T125</f>
-        <v>5.8399961028598839E-2</v>
-      </c>
-      <c r="U131" s="2">
-        <f>SUM(S131:T134)</f>
-        <v>0.24338360661128583</v>
-      </c>
-      <c r="W131">
-        <f>S131/$U131</f>
-        <v>3.8802336716540112E-2</v>
-      </c>
-      <c r="X131">
-        <f>T131/$U131</f>
-        <v>0.23995026551591417</v>
-      </c>
-      <c r="Z131">
         <f>$D$7</f>
         <v>0.1</v>
       </c>
-      <c r="AA131">
+      <c r="X125">
+        <f t="shared" ref="X125:X132" si="32">T125*LN(T125)</f>
+        <v>-0.23025850929940456</v>
+      </c>
+      <c r="AA125" s="2">
+        <f>2*SUM(X125:X132)</f>
+        <v>-3.8735042450454342</v>
+      </c>
+      <c r="AB125" s="3">
+        <f>4*SUM(Y126:Z134)</f>
+        <v>-3.7437891017853668</v>
+      </c>
+      <c r="AC125" s="3">
+        <f>N153-AA125-AB125</f>
+        <v>-0.16441840714149825</v>
+      </c>
+    </row>
+    <row r="126" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
+        <v>93</v>
+      </c>
+      <c r="D126">
+        <v>1.5</v>
+      </c>
+      <c r="H126">
+        <f t="shared" ref="H126:I129" si="33">EXP($D$124+$D$125+$D$126*$N3+$D$128*S$2)</f>
+        <v>2.6939629290606434E-2</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="33"/>
+        <v>1.9957368236892151E-2</v>
+      </c>
+      <c r="J126">
+        <f t="shared" ref="J126:K129" si="34">EXP($D$124+$F$125+$D$126*$N3+$D$128*S$2)</f>
+        <v>0.19905843211268631</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="34"/>
+        <v>0.1474661134894128</v>
+      </c>
+      <c r="S126" t="s">
+        <v>102</v>
+      </c>
+      <c r="T126">
+        <f>$E$7</f>
+        <v>0.9</v>
+      </c>
+      <c r="X126">
+        <f t="shared" si="32"/>
+        <v>-9.4824464092043662E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>94</v>
+      </c>
+      <c r="D127">
+        <v>-1.5</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="33"/>
+        <v>7.6196778216158209E-2</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="33"/>
+        <v>5.6447961659773817E-2</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="34"/>
+        <v>0.56302226879696993</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="34"/>
+        <v>0.41709715537435516</v>
+      </c>
+      <c r="R127" t="s">
+        <v>81</v>
+      </c>
+      <c r="T127">
+        <f>$D$8</f>
+        <v>0.2</v>
+      </c>
+      <c r="X127">
+        <f t="shared" si="32"/>
+        <v>-0.32188758248682009</v>
+      </c>
+      <c r="AA127" s="2"/>
+    </row>
+    <row r="128" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
+        <v>97</v>
+      </c>
+      <c r="D128">
+        <v>0.3</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="33"/>
+        <v>0.25716412647953391</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="33"/>
+        <v>0.19051187060173655</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="34"/>
+        <v>1.9002001571897731</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="34"/>
+        <v>1.4077028993884484</v>
+      </c>
+      <c r="T128">
+        <f>$E$8</f>
+        <v>0.8</v>
+      </c>
+      <c r="X128">
+        <f t="shared" si="32"/>
+        <v>-0.17851484105136778</v>
+      </c>
+    </row>
+    <row r="129" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
+        <v>98</v>
+      </c>
+      <c r="D129">
+        <v>-0.3</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="33"/>
+        <v>0.49892891660651201</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="33"/>
+        <v>0.36961563224709348</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="34"/>
+        <v>3.6866137541842101</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="34"/>
+        <v>2.7311106417154947</v>
+      </c>
+      <c r="R129" t="s">
+        <v>82</v>
+      </c>
+      <c r="T129">
+        <f>$D$9</f>
+        <v>0.7</v>
+      </c>
+      <c r="X129">
+        <f t="shared" si="32"/>
+        <v>-0.24967246075711269</v>
+      </c>
+    </row>
+    <row r="130" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="T130">
+        <f>$E$9</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="X130">
+        <f t="shared" si="32"/>
+        <v>-0.36119184129778081</v>
+      </c>
+    </row>
+    <row r="131" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="H131" t="s">
+        <v>99</v>
+      </c>
+      <c r="J131" t="s">
+        <v>100</v>
+      </c>
+      <c r="R131" t="s">
+        <v>83</v>
+      </c>
+      <c r="T131">
+        <f>$D$10</f>
+        <v>0.8</v>
+      </c>
+      <c r="X131">
+        <f t="shared" si="32"/>
+        <v>-0.17851484105136778</v>
+      </c>
+    </row>
+    <row r="132" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="H132">
+        <f t="shared" ref="H132:I135" si="35">EXP($D$124+$D$125+$D$127*$N3+$D$129*S$2)</f>
+        <v>1.8480977533430336</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="35"/>
+        <v>2.4946710296115175</v>
+      </c>
+      <c r="J132">
+        <f t="shared" ref="J132:K135" si="36">EXP($D$124+$F$125+$D$127*$N3+$D$129*S$2)</f>
+        <v>13.655697975759377</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="36"/>
+        <v>18.43326418617659</v>
+      </c>
+      <c r="T132">
+        <f>$E$10</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="X132">
+        <f t="shared" si="32"/>
+        <v>-0.32188758248682003</v>
+      </c>
+    </row>
+    <row r="133" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="H133">
+        <f t="shared" si="35"/>
+        <v>0.65340122684224133</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="35"/>
+        <v>0.88199940093396545</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="36"/>
+        <v>4.8280183202474323</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="36"/>
+        <v>6.5171430527242968</v>
+      </c>
+      <c r="R133" t="s">
+        <v>5</v>
+      </c>
+      <c r="U133">
         <f>$H$6</f>
         <v>0.7</v>
       </c>
-      <c r="AB131">
-        <f>$D$7</f>
-        <v>0.1</v>
-      </c>
-      <c r="AC131">
+      <c r="V133">
         <f>$H$7</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AE131">
-        <f>LN(W131)*D7*H6</f>
-        <v>-0.22744923666592715</v>
-      </c>
-      <c r="AF131">
-        <f>LN(X131)*D7*H7</f>
-        <v>-4.2819708123949661E-2</v>
-      </c>
-      <c r="AG131">
-        <f>W131*LN(W131)</f>
-        <v>-0.12607945524330466</v>
-      </c>
-      <c r="AH131">
-        <f>X131*LN(X131)</f>
-        <v>-0.34248667778852221</v>
-      </c>
-      <c r="AJ131" s="2">
-        <f>SUM(AE131:AF176)</f>
-        <v>-10.028062032287359</v>
-      </c>
-      <c r="AL131">
-        <f>$N$159-AJ131</f>
-        <v>2.2463502783150595</v>
-      </c>
-    </row>
-    <row r="132" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="C132" t="s">
-        <v>74</v>
-      </c>
-      <c r="D132">
-        <v>1.5</v>
-      </c>
-      <c r="H132">
-        <f>EXP($D$130+$D$131+$D$132*$N3+$D$134*S$2)</f>
-        <v>2.6939629290606434E-2</v>
-      </c>
-      <c r="I132">
-        <f>EXP($D$130+$D$131+$D$132*$N3+$D$134*T$2)</f>
-        <v>1.9957368236892151E-2</v>
-      </c>
-      <c r="J132">
-        <f>EXP($D$130+$F$131+$D$132*$N3+$D$134*S$2)</f>
-        <v>0.19905843211268631</v>
-      </c>
-      <c r="K132">
-        <f>EXP($D$130+$F$131+$D$132*$N3+$D$134*T$2)</f>
-        <v>0.1474661134894128</v>
-      </c>
-    </row>
-    <row r="133" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="C133" t="s">
-        <v>73</v>
-      </c>
-      <c r="D133">
-        <v>-1.5</v>
-      </c>
-      <c r="H133">
-        <f>EXP($D$130+$D$131+$D$132*$N4+$D$134*S$2)</f>
-        <v>7.6196778216158209E-2</v>
-      </c>
-      <c r="I133">
-        <f>EXP($D$130+$D$131+$D$132*$N4+$D$134*T$2)</f>
-        <v>5.6447961659773817E-2</v>
-      </c>
-      <c r="J133">
-        <f>EXP($D$130+$F$131+$D$132*$N4+$D$134*S$2)</f>
-        <v>0.56302226879696993</v>
-      </c>
-      <c r="K133">
-        <f>EXP($D$130+$F$131+$D$132*$N4+$D$134*T$2)</f>
-        <v>0.41709715537435516</v>
-      </c>
-      <c r="S133" t="s">
-        <v>83</v>
-      </c>
-      <c r="T133" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ133" s="2">
-        <f>SUM(AG131:AH176)</f>
-        <v>-9.1198066975007048</v>
-      </c>
-      <c r="AL133">
-        <f>$N$159-AJ133</f>
-        <v>1.3380949435284055</v>
-      </c>
-    </row>
-    <row r="134" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="C134" t="s">
-        <v>75</v>
-      </c>
-      <c r="D134">
-        <v>0.3</v>
-      </c>
+      <c r="Y133">
+        <f>U133*LN(U133)</f>
+        <v>-0.24967246075711269</v>
+      </c>
+      <c r="Z133">
+        <f>V133*LN(V133)</f>
+        <v>-0.36119184129778081</v>
+      </c>
+    </row>
+    <row r="134" spans="3:26" x14ac:dyDescent="0.2">
       <c r="H134">
-        <f>EXP($D$130+$D$131+$D$132*$N5+$D$134*S$2)</f>
-        <v>0.25716412647953391</v>
+        <f t="shared" si="35"/>
+        <v>0.1936003635088123</v>
       </c>
       <c r="I134">
-        <f>EXP($D$130+$D$131+$D$132*$N5+$D$134*T$2)</f>
-        <v>0.19051187060173655</v>
+        <f t="shared" si="35"/>
+        <v>0.26133315583228611</v>
       </c>
       <c r="J134">
-        <f>EXP($D$130+$F$131+$D$132*$N5+$D$134*S$2)</f>
-        <v>1.9002001571897731</v>
+        <f t="shared" si="36"/>
+        <v>1.4305239467399802</v>
       </c>
       <c r="K134">
-        <f>EXP($D$130+$F$131+$D$132*$N5+$D$134*T$2)</f>
-        <v>1.4077028993884484</v>
-      </c>
-      <c r="S134">
-        <f>J145*S124*S125</f>
-        <v>7.3045406115246583E-2</v>
-      </c>
-      <c r="T134">
-        <f>J151*S124*T125</f>
-        <v>0.10249438681242336</v>
-      </c>
-      <c r="W134">
-        <f>S134/$U131</f>
-        <v>0.30012459397854707</v>
-      </c>
-      <c r="X134">
-        <f>T134/$U131</f>
-        <v>0.42112280378899863</v>
-      </c>
-      <c r="Z134">
-        <f>$E$7</f>
-        <v>0.9</v>
-      </c>
-      <c r="AA134">
-        <f>$H$6</f>
-        <v>0.7</v>
-      </c>
-      <c r="AB134">
-        <f>$E$7</f>
-        <v>0.9</v>
-      </c>
-      <c r="AC134">
-        <f>$H$7</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AE134">
-        <f>LN(W134)*E7*H6</f>
-        <v>-0.7582412736881603</v>
-      </c>
-      <c r="AF134">
-        <f>LN(X134)*E7*H7</f>
-        <v>-0.23350431394092627</v>
-      </c>
-      <c r="AG134">
-        <f>W134*LN(W134)</f>
-        <v>-0.36121722921180238</v>
-      </c>
-      <c r="AH134">
-        <f>X134*LN(X134)</f>
-        <v>-0.36419996808751637</v>
-      </c>
-    </row>
-    <row r="135" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="C135" t="s">
-        <v>76</v>
-      </c>
-      <c r="D135">
-        <v>-0.3</v>
-      </c>
-      <c r="H135">
-        <f>EXP($D$130+$D$131+$D$132*$N6+$D$134*S$2)</f>
-        <v>0.49892891660651201</v>
-      </c>
-      <c r="I135">
-        <f>EXP($D$130+$D$131+$D$132*$N6+$D$134*T$2)</f>
-        <v>0.36961563224709348</v>
-      </c>
-      <c r="J135">
-        <f>EXP($D$130+$F$131+$D$132*$N6+$D$134*S$2)</f>
-        <v>3.6866137541842101</v>
-      </c>
-      <c r="K135">
-        <f>EXP($D$130+$F$131+$D$132*$N6+$D$134*T$2)</f>
-        <v>2.7311106417154947</v>
-      </c>
-    </row>
-    <row r="136" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="S136" t="s">
-        <v>81</v>
-      </c>
-      <c r="T136" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="137" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="H137" t="s">
-        <v>85</v>
-      </c>
-      <c r="J137" t="s">
-        <v>86</v>
-      </c>
-      <c r="R137" t="s">
-        <v>100</v>
-      </c>
-      <c r="S137">
-        <f>H146*S123*S125</f>
-        <v>2.5488684516678017E-2</v>
-      </c>
-      <c r="T137">
-        <f>H152*S123*T125</f>
-        <v>3.556675140982745E-2</v>
-      </c>
-      <c r="U137" s="2">
-        <f>SUM(S137:T140)</f>
-        <v>0.3106751897274197</v>
-      </c>
-      <c r="W137">
-        <f>S137/$U137</f>
-        <v>8.2042871009562396E-2</v>
-      </c>
-      <c r="X137">
-        <f>T137/$U137</f>
-        <v>0.11448211053168751</v>
-      </c>
-      <c r="Z137">
-        <f>$D$8</f>
-        <v>0.2</v>
-      </c>
-      <c r="AA137">
-        <f>$H$6</f>
-        <v>0.7</v>
-      </c>
-      <c r="AB137">
-        <f>$D$8</f>
-        <v>0.2</v>
-      </c>
-      <c r="AC137">
-        <f>$H$7</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AE137">
-        <f>LN(W137)*D8*H6</f>
-        <v>-0.35007186916091443</v>
-      </c>
-      <c r="AF137">
-        <f>LN(X137)*D8*H7</f>
-        <v>-0.13004020248554959</v>
-      </c>
-      <c r="AG137">
-        <f>W137*LN(W137)</f>
-        <v>-0.2051492943260379</v>
-      </c>
-      <c r="AH137">
-        <f>X137*LN(X137)</f>
-        <v>-0.2481212805752285</v>
-      </c>
-    </row>
-    <row r="138" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="H138">
-        <f>EXP($D$130+$D$131+$D$133*$N3+$D$135*S$2)</f>
-        <v>1.8480977533430336</v>
-      </c>
-      <c r="I138">
-        <f>EXP($D$130+$D$131+$D$133*$N3+$D$135*T$2)</f>
-        <v>2.4946710296115175</v>
-      </c>
-      <c r="J138">
-        <f>EXP($D$130+$F$131+$D$133*$N3+$D$135*S$2)</f>
-        <v>13.655697975759377</v>
-      </c>
-      <c r="K138">
-        <f>EXP($D$130+$F$131+$D$133*$N3+$D$135*T$2)</f>
-        <v>18.43326418617659</v>
-      </c>
-    </row>
-    <row r="139" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="H139">
-        <f>EXP($D$130+$D$131+$D$133*$N4+$D$135*S$2)</f>
-        <v>0.65340122684224133</v>
-      </c>
-      <c r="I139">
-        <f>EXP($D$130+$D$131+$D$133*$N4+$D$135*T$2)</f>
-        <v>0.88199940093396545</v>
-      </c>
-      <c r="J139">
-        <f>EXP($D$130+$F$131+$D$133*$N4+$D$135*S$2)</f>
-        <v>4.8280183202474323</v>
-      </c>
-      <c r="K139">
-        <f>EXP($D$130+$F$131+$D$133*$N4+$D$135*T$2)</f>
-        <v>6.5171430527242968</v>
-      </c>
-      <c r="S139" t="s">
-        <v>83</v>
-      </c>
-      <c r="T139" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="140" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="H140">
-        <f>EXP($D$130+$D$131+$D$133*$N5+$D$135*S$2)</f>
-        <v>0.1936003635088123</v>
-      </c>
-      <c r="I140">
-        <f>EXP($D$130+$D$131+$D$133*$N5+$D$135*T$2)</f>
-        <v>0.26133315583228611</v>
-      </c>
-      <c r="J140">
-        <f>EXP($D$130+$F$131+$D$133*$N5+$D$135*S$2)</f>
-        <v>1.4305239467399802</v>
-      </c>
-      <c r="K140">
-        <f>EXP($D$130+$F$131+$D$133*$N5+$D$135*T$2)</f>
+        <f t="shared" si="36"/>
         <v>1.9310053489553474</v>
       </c>
-      <c r="S140">
-        <f>J146*S124*S125</f>
-        <v>0.15849409392058117</v>
-      </c>
-      <c r="T140">
-        <f>J152*S124*T125</f>
-        <v>9.1125659880333082E-2</v>
-      </c>
-      <c r="W140">
-        <f>S140/$U137</f>
-        <v>0.51016012594903626</v>
-      </c>
-      <c r="X140">
-        <f>T140/$U137</f>
-        <v>0.29331489250971388</v>
-      </c>
-      <c r="Z140">
-        <f>$E$8</f>
-        <v>0.8</v>
-      </c>
-      <c r="AA140">
-        <f>$H$6</f>
-        <v>0.7</v>
-      </c>
-      <c r="AB140">
-        <f>$E$8</f>
-        <v>0.8</v>
-      </c>
-      <c r="AC140">
-        <f>$H$7</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AE140">
-        <f>LN(W140)*E8*H6</f>
-        <v>-0.37689715285247744</v>
-      </c>
-      <c r="AF140">
-        <f>LN(X140)*E8*H7</f>
-        <v>-0.29436204686359912</v>
-      </c>
-      <c r="AG140">
-        <f>W140*LN(W140)</f>
-        <v>-0.34335339101616613</v>
-      </c>
-      <c r="AH140">
-        <f>X140*LN(X140)</f>
-        <v>-0.35975321722806636</v>
-      </c>
-    </row>
-    <row r="141" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="H141">
-        <f>EXP($D$130+$D$131+$D$133*$N6+$D$135*S$2)</f>
-        <v>9.9787899058833826E-2</v>
-      </c>
-      <c r="I141">
-        <f>EXP($D$130+$D$131+$D$133*$N6+$D$135*T$2)</f>
-        <v>0.13469957443407196</v>
-      </c>
-      <c r="J141">
-        <f>EXP($D$130+$F$131+$D$133*$N6+$D$135*S$2)</f>
-        <v>0.73733838414015218</v>
-      </c>
-      <c r="K141">
-        <f>EXP($D$130+$F$131+$D$133*$N6+$D$135*T$2)</f>
-        <v>0.99530271199544273</v>
-      </c>
-    </row>
-    <row r="142" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="S142" t="s">
-        <v>81</v>
-      </c>
-      <c r="T142" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="143" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="H143" t="s">
-        <v>61</v>
-      </c>
-      <c r="R143" t="s">
-        <v>105</v>
-      </c>
-      <c r="S143">
-        <f>H147*S123*S125</f>
-        <v>0.28635879151922389</v>
-      </c>
-      <c r="T143">
-        <f>H153*S123*T125</f>
-        <v>7.5402121808532396E-2</v>
-      </c>
-      <c r="U143" s="2">
-        <f>SUM(S143:T146)</f>
-        <v>0.55873231144742586</v>
-      </c>
-      <c r="W143">
-        <f>S143/$U143</f>
-        <v>0.51251518061913437</v>
-      </c>
-      <c r="X143">
-        <f>T143/$U143</f>
-        <v>0.13495214123772289</v>
-      </c>
-      <c r="Z143">
-        <f>$D$9</f>
-        <v>0.7</v>
-      </c>
-      <c r="AA143">
-        <f>$H$6</f>
-        <v>0.7</v>
-      </c>
-      <c r="AB143">
-        <f>$D$9</f>
-        <v>0.7</v>
-      </c>
-      <c r="AC143">
-        <f>$H$7</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AE143">
-        <f>LN(W143)*D9*H6</f>
-        <v>-0.32752822436711826</v>
-      </c>
-      <c r="AF143">
-        <f>LN(X143)*D9*H7</f>
-        <v>-0.42059536527691266</v>
-      </c>
-      <c r="AG143">
-        <f>W143*LN(W143)</f>
-        <v>-0.34257793279464899</v>
-      </c>
-      <c r="AH143">
-        <f>X143*LN(X143)</f>
-        <v>-0.27028688161324554</v>
-      </c>
-    </row>
-    <row r="144" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="H144" t="s">
-        <v>81</v>
-      </c>
-      <c r="J144" t="s">
-        <v>83</v>
-      </c>
-      <c r="M144" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="145" spans="8:34" x14ac:dyDescent="0.2">
-      <c r="H145">
-        <f>IF(A7=0,1/(1+H132),H132/(1+H132))</f>
-        <v>2.6232924041714026E-2</v>
-      </c>
-      <c r="I145">
-        <f>IF(B7=0,1/(1+I132),I132/(1+I132))</f>
-        <v>1.9566865104754961E-2</v>
-      </c>
-      <c r="J145">
-        <f>IF(A7=0,1/(1+J132),J132/(1+J132))</f>
-        <v>0.16601228662556039</v>
-      </c>
-      <c r="K145">
-        <f>IF(B7=0,1/(1+K132),K132/(1+K132))</f>
-        <v>0.12851456941152919</v>
-      </c>
-      <c r="M145">
-        <f>$D7*LN(H145)*H$6</f>
-        <v>-0.254851801002141</v>
-      </c>
-      <c r="N145">
-        <f>$D7*LN(I145)*I$6</f>
-        <v>-0.35405259293049079</v>
-      </c>
-      <c r="O145">
-        <f>$E7*LN(J145)*H$6</f>
-        <v>-1.1312868908552403</v>
-      </c>
-      <c r="P145">
-        <f>$E7*LN(K145)*I$6</f>
-        <v>-1.6618875303559888</v>
-      </c>
-      <c r="S145" t="s">
-        <v>83</v>
-      </c>
-      <c r="T145" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="146" spans="8:34" x14ac:dyDescent="0.2">
-      <c r="H146">
-        <f>IF(A8=0,1/(1+H133),H133/(1+H133))</f>
-        <v>7.080190143521671E-2</v>
-      </c>
-      <c r="I146">
-        <f>IF(B8=0,1/(1+I133),I133/(1+I133))</f>
-        <v>0.94656815696715535</v>
-      </c>
-      <c r="J146">
-        <f>IF(A8=0,1/(1+J133),J133/(1+J133))</f>
-        <v>0.36021384981950261</v>
-      </c>
-      <c r="K146">
-        <f>IF(B8=0,1/(1+K133),K133/(1+K133))</f>
-        <v>0.70566791853860544</v>
-      </c>
-      <c r="M146">
-        <f>$D8*LN(H146)*H$6</f>
-        <v>-0.37070171910988658</v>
-      </c>
-      <c r="N146">
-        <f>$D8*LN(I146)*I$6</f>
-        <v>-9.8842142612343732E-3</v>
-      </c>
-      <c r="O146">
-        <f>$E8*LN(J146)*H$6</f>
-        <v>-0.57179214210717066</v>
-      </c>
-      <c r="P146">
-        <f>$E8*LN(K146)*I$6</f>
-        <v>-0.2509995761925442</v>
-      </c>
-      <c r="S146">
-        <f>J147*S124*S125</f>
-        <v>0.15171366669614619</v>
-      </c>
-      <c r="T146">
-        <f>J153*S124*T125</f>
-        <v>4.5257731423523358E-2</v>
-      </c>
-      <c r="W146">
-        <f>S146/$U143</f>
-        <v>0.2715319368287899</v>
-      </c>
-      <c r="X146">
-        <f>T146/$U143</f>
-        <v>8.1000741314352823E-2</v>
-      </c>
-      <c r="Z146">
-        <f>$E$9</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AA146">
-        <f>$H$6</f>
-        <v>0.7</v>
-      </c>
-      <c r="AB146">
-        <f>$E$9</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AC146">
-        <f>$H$7</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AE146">
-        <f>LN(W146)*E9*H6</f>
-        <v>-0.27377185825098255</v>
-      </c>
-      <c r="AF146">
-        <f>LN(X146)*E9*H7</f>
-        <v>-0.22619672750902781</v>
-      </c>
-      <c r="AG146">
-        <f>W146*LN(W146)</f>
-        <v>-0.35398953771479147</v>
-      </c>
-      <c r="AH146">
-        <f>X146*LN(X146)</f>
-        <v>-0.20357891790124347</v>
-      </c>
-    </row>
-    <row r="147" spans="8:34" x14ac:dyDescent="0.2">
-      <c r="H147">
-        <f>IF(A9=0,1/(1+H134),H134/(1+H134))</f>
-        <v>0.7954410875533996</v>
-      </c>
-      <c r="I147">
-        <f>IF(B9=0,1/(1+I134),I134/(1+I134))</f>
-        <v>0.16002517514205344</v>
-      </c>
-      <c r="J147">
-        <f>IF(A9=0,1/(1+J134),J134/(1+J134))</f>
-        <v>0.34480378794578675</v>
-      </c>
-      <c r="K147">
-        <f>IF(B9=0,1/(1+K134),K134/(1+K134))</f>
-        <v>0.58466636383832982</v>
-      </c>
-      <c r="M147">
-        <f>$D9*LN(H147)*H$6</f>
-        <v>-0.11214066062736965</v>
-      </c>
-      <c r="N147">
-        <f>$D9*LN(I147)*I$6</f>
-        <v>-1.1544272028373426</v>
-      </c>
-      <c r="O147">
-        <f>$E9*LN(J147)*H$6</f>
-        <v>-0.22360374840957062</v>
-      </c>
-      <c r="P147">
-        <f>$E9*LN(K147)*I$6</f>
-        <v>-0.14491275642053758</v>
-      </c>
-    </row>
-    <row r="148" spans="8:34" x14ac:dyDescent="0.2">
-      <c r="H148">
-        <f>IF(A10=0,1/(1+H135),H135/(1+H135))</f>
-        <v>0.66714304389026124</v>
-      </c>
-      <c r="I148">
-        <f>IF(B10=0,1/(1+I135),I135/(1+I135))</f>
-        <v>0.73013185338672393</v>
-      </c>
-      <c r="J148">
-        <f>IF(A10=0,1/(1+J135),J135/(1+J135))</f>
-        <v>0.21337367499235452</v>
-      </c>
-      <c r="K148">
-        <f>IF(B10=0,1/(1+K135),K135/(1+K135))</f>
-        <v>0.26801671031128116</v>
-      </c>
-      <c r="M148">
-        <f>$D10*LN(H148)*H$6</f>
-        <v>-0.22666044657389506</v>
-      </c>
-      <c r="N148">
-        <f>$D10*LN(I148)*I$6</f>
-        <v>-0.22646170085185383</v>
-      </c>
-      <c r="O148">
-        <f>$E10*LN(J148)*H$6</f>
-        <v>-0.21625944307062298</v>
-      </c>
-      <c r="P148">
-        <f>$E10*LN(K148)*I$6</f>
-        <v>-0.23700707073131652</v>
-      </c>
-      <c r="S148" t="s">
-        <v>81</v>
-      </c>
-      <c r="T148" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="149" spans="8:34" x14ac:dyDescent="0.2">
-      <c r="R149" t="s">
-        <v>109</v>
-      </c>
-      <c r="S149">
-        <f>H148*S123*S125</f>
-        <v>0.24017149580049404</v>
-      </c>
-      <c r="T149">
-        <f>H154*S123*T125</f>
-        <v>8.1833960963763441E-2</v>
-      </c>
-      <c r="U149" s="2">
-        <f>SUM(S149:T152)</f>
-        <v>0.47920511562981793</v>
-      </c>
-      <c r="W149">
-        <f>S149/$U149</f>
-        <v>0.50118725357269467</v>
-      </c>
-      <c r="X149">
-        <f>T149/$U149</f>
-        <v>0.17077021570650242</v>
-      </c>
-      <c r="Z149">
-        <f>$D$10</f>
-        <v>0.8</v>
-      </c>
-      <c r="AA149">
-        <f>$H$6</f>
-        <v>0.7</v>
-      </c>
-      <c r="AB149">
-        <f>$D$10</f>
-        <v>0.8</v>
-      </c>
-      <c r="AC149">
-        <f>$H$7</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AE149">
-        <f>LN(W149)*D10*H6</f>
-        <v>-0.38683427333704434</v>
-      </c>
-      <c r="AF149">
-        <f>LN(X149)*D10*H7</f>
-        <v>-0.42418473454639011</v>
-      </c>
-      <c r="AG149">
-        <f>W149*LN(W149)</f>
-        <v>-0.34620786971711126</v>
-      </c>
-      <c r="AH149">
-        <f>X149*LN(X149)</f>
-        <v>-0.30182549424121874</v>
-      </c>
-    </row>
-    <row r="150" spans="8:34" x14ac:dyDescent="0.2">
-      <c r="H150" t="s">
-        <v>82</v>
-      </c>
-      <c r="J150" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="151" spans="8:34" x14ac:dyDescent="0.2">
-      <c r="H151">
-        <f>IF(A7=0,1/(1+H138),H138/(1+H138))</f>
-        <v>0.64888845587332034</v>
-      </c>
-      <c r="I151">
-        <f>IF(B7=0,1/(1+I138),I138/(1+I138))</f>
-        <v>0.71385003294253868</v>
-      </c>
-      <c r="J151">
-        <f>IF(A7=0,1/(1+J138),J138/(1+J138))</f>
-        <v>0.93176715284021228</v>
-      </c>
-      <c r="K151">
-        <f>IF(B7=0,1/(1+K138),K138/(1+K138))</f>
-        <v>0.94854184091670368</v>
-      </c>
-      <c r="M151">
-        <f>$D7*LN(H151)*H$7</f>
-        <v>-1.297483343444459E-2</v>
-      </c>
-      <c r="N151">
-        <f>$D7*LN(I151)*I$7</f>
-        <v>-3.3708237659920465E-3</v>
-      </c>
-      <c r="O151">
-        <f>$E7*LN(J151)*H$7</f>
-        <v>-1.9081529510161427E-2</v>
-      </c>
-      <c r="P151">
-        <f>$E7*LN(K151)*I$7</f>
-        <v>-4.7546440072312604E-3</v>
-      </c>
-      <c r="S151" t="s">
-        <v>83</v>
-      </c>
-      <c r="T151" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="152" spans="8:34" x14ac:dyDescent="0.2">
-      <c r="H152">
-        <f>IF(A8=0,1/(1+H139),H139/(1+H139))</f>
-        <v>0.39518612677586051</v>
-      </c>
-      <c r="I152">
-        <f>IF(B8=0,1/(1+I139),I139/(1+I139))</f>
-        <v>0.53134979719108177</v>
-      </c>
-      <c r="J152">
-        <f>IF(A8=0,1/(1+J139),J139/(1+J139))</f>
-        <v>0.8284150898212097</v>
-      </c>
-      <c r="K152">
-        <f>IF(B8=0,1/(1+K139),K139/(1+K139))</f>
-        <v>0.13302926297745377</v>
-      </c>
-      <c r="M152">
-        <f>$D8*LN(H152)*H$7</f>
-        <v>-5.5703905082201341E-2</v>
-      </c>
-      <c r="N152">
-        <f>$D8*LN(I152)*I$7</f>
-        <v>-1.2646694456992453E-2</v>
-      </c>
-      <c r="O152">
-        <f>$E8*LN(J152)*H$7</f>
-        <v>-4.5177824161122461E-2</v>
-      </c>
-      <c r="P152">
-        <f>$E8*LN(K152)*I$7</f>
-        <v>-0.16137489220599105</v>
-      </c>
-      <c r="S152">
-        <f>J148*S124*S125</f>
-        <v>9.3884416996636008E-2</v>
-      </c>
-      <c r="T152">
-        <f>J154*S124*T125</f>
-        <v>6.3315241868924385E-2</v>
-      </c>
-      <c r="W152">
-        <f>S152/$U149</f>
-        <v>0.1959169757051612</v>
-      </c>
-      <c r="X152">
-        <f>T152/$U149</f>
-        <v>0.13212555501564155</v>
-      </c>
-      <c r="Z152">
-        <f>$E$10</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AA152">
-        <f>$H$6</f>
-        <v>0.7</v>
-      </c>
-      <c r="AB152">
-        <f>$E$10</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AC152">
-        <f>$H$7</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AE152">
-        <f>LN(W152)*E10*H6</f>
-        <v>-0.22820900239670908</v>
-      </c>
-      <c r="AF152">
-        <f>LN(X152)*E10*H7</f>
-        <v>-0.12144015804687178</v>
-      </c>
-      <c r="AG152">
-        <f>W152*LN(W152)</f>
-        <v>-0.31935726841610818</v>
-      </c>
-      <c r="AH152">
-        <f>X152*LN(X152)</f>
-        <v>-0.26742247138550268</v>
-      </c>
-    </row>
-    <row r="153" spans="8:34" x14ac:dyDescent="0.2">
-      <c r="H153">
-        <f>IF(A9=0,1/(1+H140),H140/(1+H140))</f>
-        <v>0.83780135342813755</v>
-      </c>
-      <c r="I153">
-        <f>IF(B9=0,1/(1+I140),I140/(1+I140))</f>
-        <v>0.20718804910812508</v>
-      </c>
-      <c r="J153">
-        <f>IF(A9=0,1/(1+J140),J140/(1+J140))</f>
-        <v>0.4114339220320305</v>
-      </c>
-      <c r="K153">
-        <f>IF(B9=0,1/(1+K140),K140/(1+K140))</f>
-        <v>0.65882013816303187</v>
-      </c>
-      <c r="M153">
-        <f>$D9*LN(H153)*H$7</f>
-        <v>-3.7164593553271959E-2</v>
-      </c>
-      <c r="N153">
-        <f>$D9*LN(I153)*I$7</f>
-        <v>-0.11018899138168885</v>
-      </c>
-      <c r="O153">
-        <f>$E9*LN(J153)*H$7</f>
-        <v>-7.9929616504775355E-2</v>
-      </c>
-      <c r="P153">
-        <f>$E9*LN(K153)*I$7</f>
-        <v>-1.2519141395985828E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="8:34" x14ac:dyDescent="0.2">
-      <c r="H154">
-        <f>IF(A10=0,1/(1+H141),H141/(1+H141))</f>
-        <v>0.90926623293070474</v>
-      </c>
-      <c r="I154">
-        <f>IF(B10=0,1/(1+I141),I141/(1+I141))</f>
-        <v>0.88129053939122781</v>
-      </c>
-      <c r="J154">
-        <f>IF(A10=0,1/(1+J141),J141/(1+J141))</f>
-        <v>0.57559310789931262</v>
-      </c>
-      <c r="K154">
-        <f>IF(B10=0,1/(1+K141),K141/(1+K141))</f>
-        <v>0.50117708655842497</v>
-      </c>
-      <c r="M154">
-        <f>$D10*LN(H154)*H$7</f>
-        <v>-2.2828162121980931E-2</v>
-      </c>
-      <c r="N154">
-        <f>$D10*LN(I154)*I$7</f>
-        <v>-1.0109433901412062E-2</v>
-      </c>
-      <c r="O154">
-        <f>$E10*LN(J154)*H$7</f>
-        <v>-3.3141256668498549E-2</v>
-      </c>
-      <c r="P154">
-        <f>$E10*LN(K154)*I$7</f>
-        <v>-1.3815915483344923E-2</v>
-      </c>
-      <c r="S154" t="s">
-        <v>81</v>
-      </c>
-      <c r="T154" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="155" spans="8:34" x14ac:dyDescent="0.2">
-      <c r="R155" t="s">
-        <v>99</v>
-      </c>
-      <c r="S155">
-        <f>I145*S123*S125</f>
-        <v>7.0440714377117868E-3</v>
-      </c>
-      <c r="T155">
-        <f>I151*S123*T125</f>
-        <v>6.4246502964828478E-2</v>
-      </c>
-      <c r="U155" s="2">
-        <f>SUM(S155:T158)</f>
-        <v>0.23217658744445052</v>
-      </c>
-      <c r="W155">
-        <f>S155/$U155</f>
-        <v>3.033928405635266E-2</v>
-      </c>
-      <c r="X155">
-        <f>T155/$U155</f>
-        <v>0.2767139601455284</v>
-      </c>
-      <c r="Z155">
-        <f>$D$7</f>
-        <v>0.1</v>
-      </c>
-      <c r="AA155">
+      <c r="R134" t="s">
+        <v>6</v>
+      </c>
+      <c r="U134">
         <f>$I$6</f>
         <v>0.9</v>
       </c>
-      <c r="AB155">
-        <f>$D$7</f>
-        <v>0.1</v>
-      </c>
-      <c r="AC155">
+      <c r="V134">
         <f>$I$7</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="AE155">
-        <f>LN(W155)*D7*I6</f>
-        <v>-0.31457807124225895</v>
-      </c>
-      <c r="AF155">
-        <f>LN(X155)*D7*I7</f>
-        <v>-1.2847709411831863E-2</v>
-      </c>
-      <c r="AG155">
-        <f>W155*LN(W155)</f>
-        <v>-0.10604526068131596</v>
-      </c>
-      <c r="AH155">
-        <f>X155*LN(X155)</f>
-        <v>-0.35551405501469729</v>
-      </c>
-    </row>
-    <row r="156" spans="8:34" x14ac:dyDescent="0.2">
-      <c r="M156">
-        <f>SUM(M145:M154)</f>
+      <c r="Y134">
+        <f>U134*LN(U134)</f>
+        <v>-9.4824464092043662E-2</v>
+      </c>
+      <c r="Z134">
+        <f>V134*LN(V134)</f>
+        <v>-0.23025850929940453</v>
+      </c>
+    </row>
+    <row r="135" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="H135">
+        <f t="shared" si="35"/>
+        <v>9.9787899058833826E-2</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="35"/>
+        <v>0.13469957443407196</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="36"/>
+        <v>0.73733838414015218</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="36"/>
+        <v>0.99530271199544273</v>
+      </c>
+    </row>
+    <row r="137" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="H137" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="138" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="H138" t="s">
+        <v>89</v>
+      </c>
+      <c r="J138" t="s">
+        <v>95</v>
+      </c>
+      <c r="M138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="H139">
+        <f t="shared" ref="H139:I142" si="37">IF(A7=0,1/(1+H126),H126/(1+H126))</f>
+        <v>2.6232924041714026E-2</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="37"/>
+        <v>1.9566865104754961E-2</v>
+      </c>
+      <c r="J139">
+        <f t="shared" ref="J139:K142" si="38">IF(A7=0,1/(1+J126),J126/(1+J126))</f>
+        <v>0.16601228662556039</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="38"/>
+        <v>0.12851456941152919</v>
+      </c>
+      <c r="M139">
+        <f t="shared" ref="M139:N142" si="39">$D7*LN(H139)*H$6</f>
+        <v>-0.254851801002141</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="39"/>
+        <v>-0.35405259293049079</v>
+      </c>
+      <c r="O139">
+        <f t="shared" ref="O139:P142" si="40">$E7*LN(J139)*H$6</f>
+        <v>-1.1312868908552403</v>
+      </c>
+      <c r="P139">
+        <f t="shared" si="40"/>
+        <v>-1.6618875303559888</v>
+      </c>
+    </row>
+    <row r="140" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="H140">
+        <f t="shared" si="37"/>
+        <v>7.080190143521671E-2</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="37"/>
+        <v>0.94656815696715535</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="38"/>
+        <v>0.36021384981950261</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="38"/>
+        <v>0.70566791853860544</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="39"/>
+        <v>-0.37070171910988658</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="39"/>
+        <v>-9.8842142612343732E-3</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="40"/>
+        <v>-0.57179214210717066</v>
+      </c>
+      <c r="P140">
+        <f t="shared" si="40"/>
+        <v>-0.2509995761925442</v>
+      </c>
+    </row>
+    <row r="141" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="H141">
+        <f t="shared" si="37"/>
+        <v>0.7954410875533996</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="37"/>
+        <v>0.16002517514205344</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="38"/>
+        <v>0.34480378794578675</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="38"/>
+        <v>0.58466636383832982</v>
+      </c>
+      <c r="M141">
+        <f t="shared" si="39"/>
+        <v>-0.11214066062736965</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="39"/>
+        <v>-1.1544272028373426</v>
+      </c>
+      <c r="O141">
+        <f t="shared" si="40"/>
+        <v>-0.22360374840957062</v>
+      </c>
+      <c r="P141">
+        <f t="shared" si="40"/>
+        <v>-0.14491275642053758</v>
+      </c>
+    </row>
+    <row r="142" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="H142">
+        <f t="shared" si="37"/>
+        <v>0.66714304389026124</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="37"/>
+        <v>0.73013185338672393</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="38"/>
+        <v>0.21337367499235452</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="38"/>
+        <v>0.26801671031128116</v>
+      </c>
+      <c r="M142">
+        <f t="shared" si="39"/>
+        <v>-0.22666044657389506</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="39"/>
+        <v>-0.22646170085185383</v>
+      </c>
+      <c r="O142">
+        <f t="shared" si="40"/>
+        <v>-0.21625944307062298</v>
+      </c>
+      <c r="P142">
+        <f t="shared" si="40"/>
+        <v>-0.23700707073131652</v>
+      </c>
+    </row>
+    <row r="144" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="H144" t="s">
+        <v>91</v>
+      </c>
+      <c r="J144" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="145" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H145">
+        <f t="shared" ref="H145:I148" si="41">IF(A7=0,1/(1+H132),H132/(1+H132))</f>
+        <v>0.64888845587332034</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="41"/>
+        <v>0.71385003294253868</v>
+      </c>
+      <c r="J145">
+        <f t="shared" ref="J145:K148" si="42">IF(A7=0,1/(1+J132),J132/(1+J132))</f>
+        <v>0.93176715284021228</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="42"/>
+        <v>0.94854184091670368</v>
+      </c>
+      <c r="M145">
+        <f t="shared" ref="M145:N148" si="43">$D7*LN(H145)*H$7</f>
+        <v>-1.297483343444459E-2</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="43"/>
+        <v>-3.3708237659920465E-3</v>
+      </c>
+      <c r="O145">
+        <f t="shared" ref="O145:P148" si="44">$E7*LN(J145)*H$7</f>
+        <v>-1.9081529510161427E-2</v>
+      </c>
+      <c r="P145">
+        <f t="shared" si="44"/>
+        <v>-4.7546440072312604E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H146">
+        <f t="shared" si="41"/>
+        <v>0.39518612677586051</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="41"/>
+        <v>0.53134979719108177</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="42"/>
+        <v>0.8284150898212097</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="42"/>
+        <v>0.13302926297745377</v>
+      </c>
+      <c r="M146">
+        <f t="shared" si="43"/>
+        <v>-5.5703905082201341E-2</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="43"/>
+        <v>-1.2646694456992453E-2</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="44"/>
+        <v>-4.5177824161122461E-2</v>
+      </c>
+      <c r="P146">
+        <f t="shared" si="44"/>
+        <v>-0.16137489220599105</v>
+      </c>
+    </row>
+    <row r="147" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H147">
+        <f t="shared" si="41"/>
+        <v>0.83780135342813755</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="41"/>
+        <v>0.20718804910812508</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="42"/>
+        <v>0.4114339220320305</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="42"/>
+        <v>0.65882013816303187</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="43"/>
+        <v>-3.7164593553271959E-2</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="43"/>
+        <v>-0.11018899138168885</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="44"/>
+        <v>-7.9929616504775355E-2</v>
+      </c>
+      <c r="P147">
+        <f t="shared" si="44"/>
+        <v>-1.2519141395985828E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H148">
+        <f t="shared" si="41"/>
+        <v>0.90926623293070474</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="41"/>
+        <v>0.88129053939122781</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="42"/>
+        <v>0.57559310789931262</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="42"/>
+        <v>0.50117708655842497</v>
+      </c>
+      <c r="M148">
+        <f t="shared" si="43"/>
+        <v>-2.2828162121980931E-2</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="43"/>
+        <v>-1.0109433901412062E-2</v>
+      </c>
+      <c r="O148">
+        <f t="shared" si="44"/>
+        <v>-3.3141256668498549E-2</v>
+      </c>
+      <c r="P148">
+        <f t="shared" si="44"/>
+        <v>-1.3815915483344923E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="M150">
+        <f>SUM(M139:M148)</f>
         <v>-1.0930261215051913</v>
       </c>
-      <c r="N156">
-        <f>SUM(N145:N154)</f>
+      <c r="N150">
+        <f>SUM(N139:N148)</f>
         <v>-1.8811416543870072</v>
       </c>
-      <c r="O156">
-        <f>SUM(O145:O154)</f>
+      <c r="O150">
+        <f>SUM(O139:O148)</f>
         <v>-2.3202724512871615</v>
       </c>
-      <c r="P156">
-        <f>SUM(P145:P154)</f>
+      <c r="P150">
+        <f>SUM(P139:P148)</f>
         <v>-2.4872715267929402</v>
       </c>
     </row>
-    <row r="157" spans="8:34" x14ac:dyDescent="0.2">
-      <c r="S157" t="s">
-        <v>83</v>
-      </c>
-      <c r="T157" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="158" spans="8:34" x14ac:dyDescent="0.2">
-      <c r="M158" t="s">
+    <row r="152" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="M152" t="s">
         <v>28</v>
       </c>
-      <c r="N158">
-        <f>M156+N156</f>
+      <c r="N152">
+        <f>M150+N150</f>
         <v>-2.9741677758921985</v>
       </c>
-      <c r="P158">
-        <f>O156+P156</f>
+      <c r="P152">
+        <f>O150+P150</f>
         <v>-4.8075439780801013</v>
       </c>
-      <c r="S158">
-        <f>K145*S124*S125</f>
-        <v>5.6546410541072858E-2</v>
-      </c>
-      <c r="T158">
-        <f>K151*S124*T125</f>
-        <v>0.1043396025008374</v>
-      </c>
-      <c r="W158">
-        <f>S158/$U155</f>
-        <v>0.24354915008216274</v>
-      </c>
-      <c r="X158">
-        <f>T158/$U155</f>
-        <v>0.44939760571595622</v>
-      </c>
-      <c r="Z158">
-        <f>$E$7</f>
-        <v>0.9</v>
-      </c>
-      <c r="AA158">
-        <f>$I$6</f>
-        <v>0.9</v>
-      </c>
-      <c r="AB158">
-        <f>$E$7</f>
-        <v>0.9</v>
-      </c>
-      <c r="AC158">
-        <f>$I$7</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="AE158">
-        <f>LN(W158)*E7*I6</f>
-        <v>-1.1440735718375601</v>
-      </c>
-      <c r="AF158">
-        <f>LN(X158)*E7*I7</f>
-        <v>-7.198625222819599E-2</v>
-      </c>
-      <c r="AG158">
-        <f>W158*LN(W158)</f>
-        <v>-0.34399771117592826</v>
-      </c>
-      <c r="AH158">
-        <f>X158*LN(X158)</f>
-        <v>-0.35944943773129112</v>
-      </c>
-    </row>
-    <row r="159" spans="8:34" x14ac:dyDescent="0.2">
-      <c r="M159" t="s">
-        <v>45</v>
-      </c>
-      <c r="N159">
-        <f>+N158+P158</f>
+    </row>
+    <row r="153" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="M153" t="s">
+        <v>29</v>
+      </c>
+      <c r="N153">
+        <f>+N152+P152</f>
         <v>-7.7817117539722993</v>
-      </c>
-    </row>
-    <row r="160" spans="8:34" x14ac:dyDescent="0.2">
-      <c r="S160" t="s">
-        <v>81</v>
-      </c>
-      <c r="T160" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="161" spans="18:34" x14ac:dyDescent="0.2">
-      <c r="R161" t="s">
-        <v>101</v>
-      </c>
-      <c r="S161">
-        <f>I146*S123*S125</f>
-        <v>0.34076453650817595</v>
-      </c>
-      <c r="T161">
-        <f>I152*S123*T125</f>
-        <v>4.7821481747197359E-2</v>
-      </c>
-      <c r="U161" s="2">
-        <f>SUM(S161:T164)</f>
-        <v>0.71371312133987963</v>
-      </c>
-      <c r="W161">
-        <f>S161/$U161</f>
-        <v>0.47745309189278501</v>
-      </c>
-      <c r="X161">
-        <f>T161/$U161</f>
-        <v>6.7003786699928333E-2</v>
-      </c>
-      <c r="Z161">
-        <f>$D$8</f>
-        <v>0.2</v>
-      </c>
-      <c r="AA161">
-        <f>$I$6</f>
-        <v>0.9</v>
-      </c>
-      <c r="AB161">
-        <f>$D$8</f>
-        <v>0.2</v>
-      </c>
-      <c r="AC161">
-        <f>$I$7</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="AE161">
-        <f>LN(W161)*D8*I6</f>
-        <v>-0.13307208493691855</v>
-      </c>
-      <c r="AF161">
-        <f>LN(X161)*D8*I7</f>
-        <v>-5.4060122865577383E-2</v>
-      </c>
-      <c r="AG161">
-        <f>W161*LN(W161)</f>
-        <v>-0.35297599109861699</v>
-      </c>
-      <c r="AH161">
-        <f>X161*LN(X161)</f>
-        <v>-0.18111164707285332</v>
-      </c>
-    </row>
-    <row r="163" spans="18:34" x14ac:dyDescent="0.2">
-      <c r="S163" t="s">
-        <v>83</v>
-      </c>
-      <c r="T163" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="164" spans="18:34" x14ac:dyDescent="0.2">
-      <c r="S164">
-        <f>K146*S124*S125</f>
-        <v>0.31049388415698642</v>
-      </c>
-      <c r="T164">
-        <f>K152*S124*T125</f>
-        <v>1.4633218927519915E-2</v>
-      </c>
-      <c r="W164">
-        <f>S164/$U161</f>
-        <v>0.43504017913259735</v>
-      </c>
-      <c r="X164">
-        <f>T164/$U161</f>
-        <v>2.0502942274689361E-2</v>
-      </c>
-      <c r="Z164">
-        <f>$E$8</f>
-        <v>0.8</v>
-      </c>
-      <c r="AA164">
-        <f>$I$6</f>
-        <v>0.9</v>
-      </c>
-      <c r="AB164">
-        <f>$E$8</f>
-        <v>0.8</v>
-      </c>
-      <c r="AC164">
-        <f>$I$7</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="AE164">
-        <f>LN(W164)*E8*I6</f>
-        <v>-0.59926815816253209</v>
-      </c>
-      <c r="AF164">
-        <f>LN(X164)*E8*I7</f>
-        <v>-0.31097495020335869</v>
-      </c>
-      <c r="AG164">
-        <f>W164*LN(W164)</f>
-        <v>-0.36209128732706886</v>
-      </c>
-      <c r="AH164">
-        <f>X164*LN(X164)</f>
-        <v>-7.9698768161173286E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="18:34" x14ac:dyDescent="0.2">
-      <c r="S166" t="s">
-        <v>81</v>
-      </c>
-      <c r="T166" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="167" spans="18:34" x14ac:dyDescent="0.2">
-      <c r="R167" t="s">
-        <v>106</v>
-      </c>
-      <c r="S167">
-        <f>I147*S123*S125</f>
-        <v>5.7609063051139248E-2</v>
-      </c>
-      <c r="T167">
-        <f>I153*S123*T125</f>
-        <v>1.8646924419731255E-2</v>
-      </c>
-      <c r="U167" s="2">
-        <f>SUM(S167:T170)</f>
-        <v>0.40597940275766919</v>
-      </c>
-      <c r="W167">
-        <f>S167/$U167</f>
-        <v>0.14190144292991716</v>
-      </c>
-      <c r="X167">
-        <f>T167/$U167</f>
-        <v>4.5930715433023295E-2</v>
-      </c>
-      <c r="Z167">
-        <f>$D$9</f>
-        <v>0.7</v>
-      </c>
-      <c r="AA167">
-        <f>$I$6</f>
-        <v>0.9</v>
-      </c>
-      <c r="AB167">
-        <f>$D$9</f>
-        <v>0.7</v>
-      </c>
-      <c r="AC167">
-        <f>$I$7</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="AE167">
-        <f>LN(W167)*D9*I6</f>
-        <v>-1.2301521915239781</v>
-      </c>
-      <c r="AF167">
-        <f>LN(X167)*D9*I7</f>
-        <v>-0.21564348429192956</v>
-      </c>
-      <c r="AG167">
-        <f>W167*LN(W167)</f>
-        <v>-0.27707995396928942</v>
-      </c>
-      <c r="AH167">
-        <f>X167*LN(X167)</f>
-        <v>-0.14149513588568927</v>
-      </c>
-    </row>
-    <row r="169" spans="18:34" x14ac:dyDescent="0.2">
-      <c r="S169" t="s">
-        <v>83</v>
-      </c>
-      <c r="T169" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="170" spans="18:34" x14ac:dyDescent="0.2">
-      <c r="S170">
-        <f>K147*S124*S125</f>
-        <v>0.25725320008886515</v>
-      </c>
-      <c r="T170">
-        <f>K153*S124*T125</f>
-        <v>7.2470215197933507E-2</v>
-      </c>
-      <c r="W170">
-        <f>S170/$U167</f>
-        <v>0.63366071860158057</v>
-      </c>
-      <c r="X170">
-        <f>T170/$U167</f>
-        <v>0.17850712303547892</v>
-      </c>
-      <c r="Z170">
-        <f>$E$9</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AA170">
-        <f>$I$6</f>
-        <v>0.9</v>
-      </c>
-      <c r="AB170">
-        <f>$E$9</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AC170">
-        <f>$I$7</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="AE170">
-        <f>LN(W170)*E9*I6</f>
-        <v>-0.1231852352257435</v>
-      </c>
-      <c r="AF170">
-        <f>LN(X170)*E9*I7</f>
-        <v>-5.169380320793876E-2</v>
-      </c>
-      <c r="AG170">
-        <f>W170*LN(W170)</f>
-        <v>-0.28910238768240498</v>
-      </c>
-      <c r="AH170">
-        <f>X170*LN(X170)</f>
-        <v>-0.30759040298037871</v>
-      </c>
-    </row>
-    <row r="172" spans="18:34" x14ac:dyDescent="0.2">
-      <c r="S172" t="s">
-        <v>81</v>
-      </c>
-      <c r="T172" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="173" spans="18:34" x14ac:dyDescent="0.2">
-      <c r="R173" t="s">
-        <v>110</v>
-      </c>
-      <c r="S173">
-        <f>I148*S123*S125</f>
-        <v>0.26284746721922064</v>
-      </c>
-      <c r="T173">
-        <f>I154*S123*T125</f>
-        <v>7.9316148545210519E-2</v>
-      </c>
-      <c r="U173" s="2">
-        <f>SUM(S173:T176)</f>
-        <v>0.51522044782282161</v>
-      </c>
-      <c r="W173">
-        <f>S173/$U173</f>
-        <v>0.51016505328921047</v>
-      </c>
-      <c r="X173">
-        <f>T173/$U173</f>
-        <v>0.15394604169997234</v>
-      </c>
-      <c r="Z173">
-        <f>$D$10</f>
-        <v>0.8</v>
-      </c>
-      <c r="AA173">
-        <f>$I$6</f>
-        <v>0.9</v>
-      </c>
-      <c r="AB173">
-        <f>$D$10</f>
-        <v>0.8</v>
-      </c>
-      <c r="AC173">
-        <f>$I$7</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="AE173">
-        <f>LN(W173)*D10*I6</f>
-        <v>-0.48457509963948536</v>
-      </c>
-      <c r="AF173">
-        <f>LN(X173)*D10*I7</f>
-        <v>-0.14969224932296235</v>
-      </c>
-      <c r="AG173">
-        <f>W173*LN(W173)</f>
-        <v>-0.34335177990305904</v>
-      </c>
-      <c r="AH173">
-        <f>X173*LN(X173)</f>
-        <v>-0.28805661570544278</v>
-      </c>
-    </row>
-    <row r="175" spans="18:34" x14ac:dyDescent="0.2">
-      <c r="S175" t="s">
-        <v>83</v>
-      </c>
-      <c r="T175" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="176" spans="18:34" x14ac:dyDescent="0.2">
-      <c r="S176">
-        <f>K148*S124*S125</f>
-        <v>0.11792735253696372</v>
-      </c>
-      <c r="T176">
-        <f>K154*S124*T125</f>
-        <v>5.5129479521426751E-2</v>
-      </c>
-      <c r="W176">
-        <f>S176/$U173</f>
-        <v>0.22888717448092741</v>
-      </c>
-      <c r="X176">
-        <f>T176/$U173</f>
-        <v>0.10700173052988989</v>
-      </c>
-      <c r="Z176">
-        <f>$E$10</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AA176">
-        <f>$I$6</f>
-        <v>0.9</v>
-      </c>
-      <c r="AB176">
-        <f>$E$10</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AC176">
-        <f>$I$7</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="AE176">
-        <f>LN(W176)*E10*I6</f>
-        <v>-0.26541469524503719</v>
-      </c>
-      <c r="AF176">
-        <f>LN(X176)*E10*I7</f>
-        <v>-4.4698205429489463E-2</v>
-      </c>
-      <c r="AG176">
-        <f>W176*LN(W176)</f>
-        <v>-0.33750010922418339</v>
-      </c>
-      <c r="AH176">
-        <f>X176*LN(X176)</f>
-        <v>-0.23913926662679474</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/tests/testthat/likelihood_calculations.xlsx
+++ b/tests/testthat/likelihood_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Marsden\clustord\tests\testthat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240A23D9-0D41-4974-8CC6-6EC6C67A9894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ACF153-6E9E-4EF9-806C-7AE07E7A6420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="120" windowWidth="17280" windowHeight="9060" tabRatio="372" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OSM" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Binary" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -4400,8 +4401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView topLeftCell="H54" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="R97" sqref="R97"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7595,8 +7596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2DA2D9-F29D-4DBB-9461-1402B0C64181}">
   <dimension ref="A1:AC153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F105" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I151" sqref="I151"/>
+    <sheetView topLeftCell="A108" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J157" sqref="J157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
